--- a/MLSD-BOM/resources/DynamicDomains.xlsx
+++ b/MLSD-BOM/resources/DynamicDomains.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="2433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="2460">
   <si>
     <t>Values</t>
   </si>
@@ -7332,6 +7332,87 @@
   </si>
   <si>
     <t>Invalid Dependent Can't Be Added For This Sub-Segment</t>
+  </si>
+  <si>
+    <t>MSGML6</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Is Beneficiary In this Service Before During His Medication Period</t>
+  </si>
+  <si>
+    <t>MSG-ML6</t>
+  </si>
+  <si>
+    <t>اسقاط المستفيد بسبب تم الأستفادة من الخدمة سابقا خلال مدة العجز المؤقت</t>
+  </si>
+  <si>
+    <t>MSGML7</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Doesn't Have Any Eligible Dependents</t>
+  </si>
+  <si>
+    <t>MSG-ML7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسقاط المستفيد بسبب عدم وجود تابعين </t>
+  </si>
+  <si>
+    <t>اسقاط المستفيد بسبب مدة العجز المؤقت أقل من سنة</t>
+  </si>
+  <si>
+    <t>MSGML8</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Medication Period Doesn't Exceed One Year</t>
+  </si>
+  <si>
+    <t>MSG-ML8</t>
+  </si>
+  <si>
+    <t>MSGML9</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Didn't Pass The Eligible Duration Since The Last AdHoc Payment</t>
+  </si>
+  <si>
+    <t>MSG-ML9</t>
+  </si>
+  <si>
+    <t>اسقاط المستفيد بسبب عدم تجاوز المدة المقبولة</t>
+  </si>
+  <si>
+    <t>اسقاط المستفيد بسبب عدم وجود دخل ثابت</t>
+  </si>
+  <si>
+    <t>MSGML10</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Doesn't Have Stable Income</t>
+  </si>
+  <si>
+    <t>MSG-ML10</t>
+  </si>
+  <si>
+    <t>MSGML11</t>
+  </si>
+  <si>
+    <t>Invalid Father Of The Applicant Is Not Deceased</t>
+  </si>
+  <si>
+    <t>MSG-ML11</t>
+  </si>
+  <si>
+    <t>MSGML12</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Number Of Dependents Exceeds The Limit</t>
+  </si>
+  <si>
+    <t>MSG-ML12</t>
+  </si>
+  <si>
+    <t>اسقاط المستفيد بسبب تجاوز حد التابعين المسموح</t>
   </si>
 </sst>
 </file>
@@ -7388,7 +7469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7411,6 +7492,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12011,10 +12101,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14881,7 +14971,7 @@
         <v>2424</v>
       </c>
       <c r="D159" s="4" t="str">
-        <f t="shared" ref="D159:D160" si="9">CONCATENATE("return new RejectionMessageDetails(""",C159,"""",",""",B159,"""",",""",E159,""")",";")</f>
+        <f t="shared" ref="D159:D167" si="9">CONCATENATE("return new RejectionMessageDetails(""",C159,"""",",""",B159,"""",",""",E159,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-ML4","Invalid Husband Can't Be Added For This Sub-Segment","لا يمكن أضافة الزوج في هذه الحيثية");</v>
       </c>
       <c r="E159" s="10" t="s">
@@ -14904,6 +14994,132 @@
       </c>
       <c r="E160" s="10" t="s">
         <v>2428</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D161" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>return new RejectionMessageDetails("MSG-ML6","Invalid Applicant Is Beneficiary In this Service Before During His Medication Period","اسقاط المستفيد بسبب تم الأستفادة من الخدمة سابقا خلال مدة العجز المؤقت");</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D162" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>return new RejectionMessageDetails("MSG-ML7","Invalid Applicant Doesn't Have Any Eligible Dependents","اسقاط المستفيد بسبب عدم وجود تابعين ");</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D163" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>return new RejectionMessageDetails("MSG-ML8","Invalid Applicant Medication Period Doesn't Exceed One Year","اسقاط المستفيد بسبب مدة العجز المؤقت أقل من سنة");</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D164" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>return new RejectionMessageDetails("MSG-ML9","Invalid Applicant Didn't Pass The Eligible Duration Since The Last AdHoc Payment","اسقاط المستفيد بسبب عدم تجاوز المدة المقبولة");</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D165" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>return new RejectionMessageDetails("MSG-ML10","Invalid Applicant Doesn't Have Stable Income","اسقاط المستفيد بسبب عدم وجود دخل ثابت");</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D166" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>return new RejectionMessageDetails("MSG-ML11","Invalid Father Of The Applicant Is Not Deceased","اسقاط المستفيد بسبب عدم وفاة الأب ");</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D167" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>return new RejectionMessageDetails("MSG-ML12","Invalid Applicant Number Of Dependents Exceeds The Limit","اسقاط المستفيد بسبب تجاوز حد التابعين المسموح");</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>2459</v>
       </c>
     </row>
   </sheetData>

--- a/MLSD-BOM/resources/DynamicDomains.xlsx
+++ b/MLSD-BOM/resources/DynamicDomains.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="2497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="2501">
   <si>
     <t>Values</t>
   </si>
@@ -4814,9 +4814,6 @@
     <t>MSG-SC6</t>
   </si>
   <si>
-    <t>Invalid Applicant Exceeds The Income Salary And Pension Limit</t>
-  </si>
-  <si>
     <t>MSG-SC7</t>
   </si>
   <si>
@@ -7524,6 +7521,21 @@
   </si>
   <si>
     <t>MSGSCF6</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Exceeds The Income Limit</t>
+  </si>
+  <si>
+    <t>MSGSCF7</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Disability Class Is Not Defined</t>
+  </si>
+  <si>
+    <t>MSG-SCF7</t>
+  </si>
+  <si>
+    <t>اسقاط المستفيد بسبب عدم وجود فئة استحقاق</t>
   </si>
 </sst>
 </file>
@@ -7580,7 +7592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7613,6 +7625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8535,10 +8548,10 @@
         <v>667</v>
       </c>
       <c r="B2" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="C2" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D2" t="s">
         <v>654</v>
@@ -8549,10 +8562,10 @@
         <v>668</v>
       </c>
       <c r="B3" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="C3" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D3" t="s">
         <v>655</v>
@@ -8563,10 +8576,10 @@
         <v>669</v>
       </c>
       <c r="B4" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="C4" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D4" t="s">
         <v>656</v>
@@ -8577,10 +8590,10 @@
         <v>670</v>
       </c>
       <c r="B5" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C5" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D5" t="s">
         <v>657</v>
@@ -8591,10 +8604,10 @@
         <v>671</v>
       </c>
       <c r="B6" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="C6" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D6" t="s">
         <v>658</v>
@@ -8605,10 +8618,10 @@
         <v>672</v>
       </c>
       <c r="B7" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="C7" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D7" t="s">
         <v>659</v>
@@ -8619,10 +8632,10 @@
         <v>650</v>
       </c>
       <c r="B8" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="C8" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D8" t="s">
         <v>660</v>
@@ -8633,10 +8646,10 @@
         <v>673</v>
       </c>
       <c r="B9" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C9" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D9" t="s">
         <v>661</v>
@@ -8647,10 +8660,10 @@
         <v>674</v>
       </c>
       <c r="B10" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="C10" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D10" t="s">
         <v>662</v>
@@ -8661,10 +8674,10 @@
         <v>675</v>
       </c>
       <c r="B11" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="C11" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D11" t="s">
         <v>663</v>
@@ -8675,10 +8688,10 @@
         <v>676</v>
       </c>
       <c r="B12" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="C12" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D12" t="s">
         <v>664</v>
@@ -8689,10 +8702,10 @@
         <v>666</v>
       </c>
       <c r="B13" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="C13" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D13" t="s">
         <v>665</v>
@@ -12212,10 +12225,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E178"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12584,7 +12597,7 @@
         <v>return new RejectionMessageDetails("MSG-C4","Invalid Applicant Is Deceased","اسقاط المستفيد بسبب الوفاة");</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -12736,7 +12749,7 @@
         <v>279</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>280</v>
@@ -12746,25 +12759,25 @@
         <v>return new RejectionMessageDetails("MSG-D14","Invalid Dependent Private Business Check","اسقاط التابع بسبب وجود رخصة نشاط تجاري");</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>2452</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>2453</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>2454</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D15","Invalid Dependent Doesn't Exists In NIC","اسقاط التابع بسبب انه غير متواجد في بيانات ان اي سي ");</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -14101,7 +14114,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>1583</v>
@@ -14119,7 +14132,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>1586</v>
@@ -14132,12 +14145,12 @@
         <v>return new RejectionMessageDetails("MSG-SC3","Invalid Applicant Exceeds the Residency Period in A Governmental Hospital","الإقامة بمرفق صحي أو تأهيلي على نفقة الدولة لأكثر من 6 شهور");</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>1588</v>
@@ -14155,7 +14168,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>1591</v>
@@ -14168,72 +14181,72 @@
         <v>return new RejectionMessageDetails("MSG-SC5","Invalid Applicant is Scholar","الابتعاث للدارسة على حساب الدولة داخل او خارج المملكة");</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1593</v>
+        <v>2496</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>1592</v>
       </c>
       <c r="D109" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC6","Invalid Applicant Exceeds The Income Salary And Pension Limit","مجموع دخل المستفيد الشهري أكثر من 4000 ريال");</v>
+        <v>return new RejectionMessageDetails("MSG-SC6","Invalid Applicant Exceeds The Income Limit","مجموع دخل المستفيد الشهري أكثر من 4000 ريال");</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D110" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC7","Invalid Applicant Age at Disability","السن وقت حدوث الإعاقة أصغر من 2 أو أكبر من 45");</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D111" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC8","Invalid Applicant Disability Class With Assesment Evaluation","عدم تحديث البيانات وإعادة تقييم الإعاقه في الوقت المحدد حسب فئة الاعاقة");</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>1605</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>1606</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>1607</v>
       </c>
       <c r="D112" s="6" t="str">
         <f t="shared" si="4"/>
@@ -14245,985 +14258,985 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>1608</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>1609</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>1610</v>
       </c>
       <c r="D113" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC10","Invalid Applicant Lives In Governmental Hospital","اسقاط المستفيد بسبب الاقامة في المرافق الصحية على نفقة الدولة");</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>1613</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>1614</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>1615</v>
       </c>
       <c r="D114" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC11","Invalid Applicant Head Of House Hold Income","اسقاط المستفيد بسبب عدم توافق دخل عائل الاسرة مع الخدمة");</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>1616</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>1617</v>
       </c>
       <c r="D115" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC12","Invalid Applicant is Beneficiary From a Car Lifter Equipment And Not Expired","اسقاط المستفيد بسبب انه مستفيد من جهاز رافعة السيارة و لم تنتهي المدة النظامية");</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>1620</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>1621</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>1622</v>
       </c>
       <c r="D116" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC13","Invalid Applicant Period of Beneficiary From An Equipped Car","اسقاط المستفيد بسبب عدم توافق المدة المحددة للاستفادة من السيارة المجهزة");</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>1624</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>1625</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>1626</v>
       </c>
       <c r="D117" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC14","Invalid Applicant Nationality Is Not An Arabian Country","اسقاط المستفيد بسبب الجنسية لبست من احد الدول العربية");</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>1629</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>1630</v>
       </c>
       <c r="D118" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC15","Invalid Applicant is Not Valid For Job Rehabilitation Service","اسقاط المستفيد بسبب انه غير صالح للتأهيل المهني");</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>1632</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>1633</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>1634</v>
       </c>
       <c r="D119" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC16","Invalid Applicant Disability Assesment Is Not Valid","اسقاط المستفيد بسبب انتهاء صلاحية اخر تقيم للاعاقة");</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>1636</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>1637</v>
       </c>
       <c r="D120" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC17","Invalid Applicant Mental Disability","اسقاط المستفيد بسبب الاعاقة العقلية");</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>1640</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>1641</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>1642</v>
       </c>
       <c r="D121" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC18","Invalid Requested Medical Equipment is Available from Military Sectors","اسقاط المستفيد بسبب الجهاز المطلوب غير مستثناة من رعاية صحية من القطاعات العسكرية");</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>1644</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>1645</v>
-      </c>
       <c r="C122" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D122" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC19","Invalid Requested Medical Equipment is Primary and The Applicant Has Reached The Limit","اسقاط المستفيد بسبب الجهاز المطلوب جهاز رئيسي و المستفيد وصل للحد الأقصى للاجهزه الرئيسية");</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>1648</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>1649</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>1650</v>
       </c>
       <c r="D123" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC20","Invalid Applicant Is Requesting a Conflicting Equipment","اسقاط المستفيد بسبب الجهاز المطلوب متعارض مع اجهزة المستفيد");</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>1653</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>1654</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>1655</v>
       </c>
       <c r="D124" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC21","Invalid Applicant Requested a Conflicting Home Worker","اسقاط المستفيد بسبب نوع العمالة المنزلية المطلوبة مماثلة للعمالة الحالية");</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>1656</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>1657</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>1658</v>
       </c>
       <c r="D125" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC22","Invalid Applicant Doesn't Meet The Required Age For the Requested Equipment","اسقاط المستفيد بسبب السن لا يتناسب مع السن المطلوب للجهاز");</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>1660</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>1661</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>1662</v>
       </c>
       <c r="D126" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC23","Invalid Applicant Doesn't Meet the Eligible Disabilities Of the Requested Equipment","اسقاط المستفيد بسبب عدم توفر الاعاقة المستحقة للجهاز المطلوب");</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>1664</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>1665</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>1666</v>
       </c>
       <c r="D127" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC24","Invalid Applicant Meets the InEligible Disabilities Of the Requested Equipment","اسقاط المستفيد بسبب توفر اعاقة غير مستحقة للجهاز المطلوب");</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>1668</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>1669</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>1670</v>
       </c>
       <c r="D128" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC25","Invalid Applicant Have A Conflicting Equipment With The Requested One","اسقاط المستفيد بسبب توفر جهاز متعارض مع الجهاز المطلوب");</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>1717</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="C129" s="4" t="s">
         <v>1718</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>1719</v>
       </c>
       <c r="D129" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC26","Invalid Applicant Is Not Living In A Ministerial Facility","اسقاط المستفيد بسبب السكن ليس المؤسسات أو الدور الأجتماعية تابعة للوزارة");</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>1721</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>1722</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>1723</v>
       </c>
       <c r="D130" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC27","Invalid Applicant Father is Not Deceased And Not Unknown","اسقاط المستفيد بسبب حالة الأب غير متوفي و غير مجهول");</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>1725</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>1726</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>1727</v>
       </c>
       <c r="D131" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC28","Invalid Applicant Gender And Marital Status Is Not Valid","اسقاط المستفيد بسبب عدم توافق النوع و الحالة الاجتماعية مع نوع الخدمة");</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>1729</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>1730</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>1731</v>
       </c>
       <c r="D132" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC29","Invalid Applicant Received Marriage Reward Before","اسقاط المستفيد بسبب أنه أستلم مكافئة زواج من قبل");</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>1733</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>1734</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>1735</v>
       </c>
       <c r="D133" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC30","Invalid Applicant Educational Level Is Other","اسقاط المستفيد بسبب عدم توافق المرحلة الدراسية مع نوع الخدمة");</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>1737</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>1738</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>1739</v>
       </c>
       <c r="D134" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC31","Invalid Applicant Doesn't Live In Elderly Care","اسقاط المستفيد بسبب عدم تواجده في دار مسنين او مسنات");</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>2273</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>2274</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>2275</v>
       </c>
       <c r="D135" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC32","Invalid Applicant Number Of Offsprings Exceeds The Limit","اسقاط المستفيد بسبب تجاوز حد الابناء المسموح للأسرة");</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>2277</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>2278</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>2279</v>
       </c>
       <c r="D136" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC33","Invalid Applicant Is Not Beneficiary In Social Security","اسقاط التابع بسبب أنه غير مسجل في برنامج معاش الضمان الأجتماعي");</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>2281</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>2282</v>
-      </c>
       <c r="C137" s="4" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D137" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC34","Invalid Orphan Is Deceased","اسقاط المستفيد بسبب وفاة اليتيم");</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>2285</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>2286</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>2287</v>
       </c>
       <c r="D138" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC35","Invalid Orphan Marital Status Is Married","اسقاط المستفيد بسبب عدم توافق الحالة الاجتماعية لليتيم (متزوج)");</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>2289</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>2290</v>
-      </c>
       <c r="C139" s="4" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D139" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC36","Invalid Orphan Is Employed","اسقاط المستفيد بسبب ان اليتيم على رأس العمل");</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D140" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC37","Invalid Orphan Age Check","اسقاط المستفيد بسبب عدم توافق عمر اليتيم مع الخدمة المقدمة");</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D141" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC38","Invalid Orphan Is Not Student","اسقاط المستفيد بسبب ان اليتيم ليس طالب");</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>2301</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>2302</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>2303</v>
       </c>
       <c r="D142" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC39","Invalid Applicant Received Orphan End Of Custody Reward","اسقاط المستفيد بسبب انه تم استلام مكافأة نهاية حضانة لهذا اليتيم من قبل");</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>2305</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>2308</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>2306</v>
       </c>
       <c r="D143" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC40","Invalid Orphan Didn't Receive Graduation Certificate","اسقاط المستفيد بسبب ان اليتيم غير حاصل على شهادة تخرج");</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>2309</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>2310</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>2311</v>
       </c>
       <c r="D144" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC41","Invalid Applicant Custody Allowance Is Suspended","اسقاط المستفيد بسبب أعانة الحضانة متوقفة");</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>2313</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>2314</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>2315</v>
       </c>
       <c r="D145" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC42","Invalid Applicant Didn't Receive Graduation Certificate","اسقاط المستفيد بسبب اليتيم غير حاصل على شهادة تخرج");</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>2361</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>2362</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>2363</v>
       </c>
       <c r="D146" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SP1","Invalid Applicant Doesn't Exist in NIC","اسقاط المستفيد بسبب انه غير متواجد في بيانات ان اي سي ");</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>2366</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="C147" s="4" t="s">
         <v>2367</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>2368</v>
       </c>
       <c r="D147" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SP2","Invalid Dependent Don't Exist In NIC","اسقاط التابع بسبب انه غير متواجد في بيانات ان اي سي ");</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>2369</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>2370</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>2371</v>
       </c>
       <c r="D148" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SP3","Invalid Applicant Marital Status Declaration","اسقاط المستفيد بسبب عدم توافق الحالة الأجتماعية مع الحالة الحالية");</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>2373</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="C149" s="4" t="s">
         <v>2374</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>2375</v>
       </c>
       <c r="D149" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC43","Invalid Applicant is Requesting a Duplicate Assistance Card","اسقاط المستفيد بسبب تكرار في الكروت المطلوبة");</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>2379</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>2380</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>2381</v>
       </c>
       <c r="D150" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC44","Invalid Applicant is Requesting a Duplicate Medical Equipments","اسقاط المستفيد بسبب تكرار في الأجهزة المطلوبة");</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>2382</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>2383</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>2384</v>
       </c>
       <c r="D151" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC45","Invalid Applicant is Requesting a Duplicate Visa Fee Waiver","اسقاط المستفيد بسبب تكرار في العمالة المطلوبة");</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>2385</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>2387</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>2386</v>
       </c>
       <c r="D152" s="4" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-D99","Invalid Husband Is Deceased","اسقاط المستفيد بسبب وفاة  الزوج");</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>2389</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="C153" s="4" t="s">
         <v>2390</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>2391</v>
       </c>
       <c r="D153" s="4" t="str">
         <f t="shared" ref="D153:D154" si="5">CONCATENATE("return new RejectionMessageDetails(""",C153,"""",",""",B153,"""",",""",E153,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-D98","Invalid Mother Is Deceased","اسقاط المستفيد بسبب وفاة  الأم");</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>2393</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="C154" s="4" t="s">
         <v>2394</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>2395</v>
       </c>
       <c r="D154" s="4" t="str">
         <f t="shared" si="5"/>
         <v>return new RejectionMessageDetails("MSG-SP4","Invalid Applicant Military Status Declaration","اسقاط المستفيد بسبب عدم توافق الحالة العسكرية مع الحالة الحالية");</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>2397</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>2400</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>2398</v>
       </c>
       <c r="D155" s="4" t="str">
         <f t="shared" ref="D155:D157" si="6">CONCATENATE("return new RejectionMessageDetails(""",C155,"""",",""",B155,"""",",""",E155,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-SP5","Invalid Applicant Dependents Declaration","اسقاط المستفيد بسبب عدم توافق تكوين الأسرة مع التكوين الحالي");</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>2401</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>2402</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>2403</v>
       </c>
       <c r="D156" s="4" t="str">
         <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-AS2","Invalid Applicant Asset And Income Rule","اسقاط المستفيد بسبب عدم توافق الدخل و الأصول مع نوع الخدمة");</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>2405</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>2424</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>2406</v>
       </c>
       <c r="D157" s="4" t="str">
         <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-ML1","Invalid Dependent Can't Be Added For This Sub-Segment","لا يمكن أضافة هذا التابع في هذه الحيثية");</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>2408</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>2409</v>
-      </c>
       <c r="C158" s="4" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D158" s="4" t="str">
         <f t="shared" ref="D158" si="7">CONCATENATE("return new RejectionMessageDetails(""",C158,"""",",""",B158,"""",",""",E158,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-ML2","Invalid Father Can't Be Added For This Sub-Segment","لا يمكن أضافة الأب في هذه الحيثية");</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>2412</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>2421</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>2413</v>
       </c>
       <c r="D159" s="4" t="str">
         <f t="shared" ref="D159" si="8">CONCATENATE("return new RejectionMessageDetails(""",C159,"""",",""",B159,"""",",""",E159,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-ML3","Invalid Mother Can't Be Added For This Sub-Segment","لا يمكن أضافة الأم في هذه الحيثية");</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D160" s="4" t="str">
         <f t="shared" ref="D160:D170" si="9">CONCATENATE("return new RejectionMessageDetails(""",C160,"""",",""",B160,"""",",""",E160,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-ML4","Invalid Husband Can't Be Added For This Sub-Segment","لا يمكن أضافة الزوج في هذه الحيثية");</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D161" s="4" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML5","Invalid Wife Can't Be Added For This Sub-Segment","لا يمكن أضافة الزوجة في هذه الحيثية");</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B162" s="11" t="s">
         <v>2425</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="C162" s="6" t="s">
         <v>2426</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>2427</v>
       </c>
       <c r="D162" s="6" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML6","Invalid Applicant Is Beneficiary In this Service Before During His Medication Period","اسقاط المستفيد بسبب تم الأستفادة من الخدمة سابقا خلال مدة العجز المؤقت");</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>2429</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>2430</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>2431</v>
       </c>
       <c r="D163" s="4" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML7","Invalid Applicant Doesn't Have Any Eligible Dependents","اسقاط المستفيد بسبب عدم وجود تابعين ");</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>2434</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="C164" s="4" t="s">
         <v>2435</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>2436</v>
       </c>
       <c r="D164" s="4" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML8","Invalid Applicant Medication Period Doesn't Exceed One Year","اسقاط المستفيد بسبب مدة العجز المؤقت أقل من سنة");</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B165" s="11" t="s">
         <v>2437</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="C165" s="6" t="s">
         <v>2438</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>2439</v>
       </c>
       <c r="D165" s="6" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML9","Invalid Applicant Didn't Pass The Eligible Duration Since The Last AdHoc Payment","اسقاط المستفيد بسبب عدم تجاوز المدة المقبولة");</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>2442</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="C166" s="4" t="s">
         <v>2443</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>2444</v>
       </c>
       <c r="D166" s="4" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML10","Invalid Applicant Doesn't Have Stable Income","اسقاط المستفيد بسبب عدم وجود دخل ثابت");</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>2445</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="C167" s="4" t="s">
         <v>2446</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>2447</v>
       </c>
       <c r="D167" s="4" t="str">
         <f t="shared" si="9"/>
@@ -15235,200 +15248,218 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>2448</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>2449</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>2450</v>
       </c>
       <c r="D168" s="4" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML12","Invalid Applicant Number Of Dependents Exceeds The Limit","اسقاط المستفيد بسبب تجاوز حد التابعين المسموح");</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>2457</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>2458</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>2459</v>
       </c>
       <c r="D169" s="4" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-SC46","Invalid Foster Family Applicant Is Deceased","اسقاط المستفيد بسبب وفاة  الحاضن");</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>2461</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>2462</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>2463</v>
       </c>
       <c r="D170" s="6" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML13","Invalid Applicant Is DSS Eligible And Applying For Exclusive Support","اسقاط المستفيد بسبب انه مسجل في برنامج معاش الضمان الأجتماعي و مقدم في المساعدة الغير مشمولة");</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C171" s="6" t="s">
         <v>2465</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="D171" s="6" t="str">
+        <f t="shared" ref="D171:D179" si="10">CONCATENATE("return new RejectionMessageDetails(""",C171,"""",",""",B171,"""",",""",E171,""")",";")</f>
+        <v>return new RejectionMessageDetails("MSG-ML14","Invalid Applicant Is Not DSS Eligible And Applying For Inclusive Support","اسقاط المستفيد بسبب انه غير مسجل في برنامج معاش الضمان الأجتماعي و مقدم في المساعدة مشمولة");</v>
+      </c>
+      <c r="E171" s="13" t="s">
         <v>2467</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>2466</v>
-      </c>
-      <c r="D171" s="6" t="str">
-        <f t="shared" ref="D171:D178" si="10">CONCATENATE("return new RejectionMessageDetails(""",C171,"""",",""",B171,"""",",""",E171,""")",";")</f>
-        <v>return new RejectionMessageDetails("MSG-ML14","Invalid Applicant Is Not DSS Eligible And Applying For Inclusive Support","اسقاط المستفيد بسبب انه غير مسجل في برنامج معاش الضمان الأجتماعي و مقدم في المساعدة مشمولة");</v>
-      </c>
-      <c r="E171" s="13" t="s">
-        <v>2468</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>2470</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="C172" s="4" t="s">
         <v>2471</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>2472</v>
       </c>
       <c r="D172" s="4" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-ML15","Invalid Applicant Exceeds The Eligible Number Of Home Workers","اسقاط المستفيد بسبب انه تجاوز الحد المسموح للعمالة المنزلية");</v>
       </c>
-      <c r="E172" s="10" t="s">
-        <v>2473</v>
+      <c r="E172" s="14" t="s">
+        <v>2472</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>1588</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D173" s="4" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF1","Invalid Applicant Is Beneficiary From a Conflicting Service","الالحاق في احدى الخدمات المتعارضة مع خدمة الاعانة المالية");</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>2481</v>
+      <c r="E173" s="14" t="s">
+        <v>2480</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>1583</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D174" s="4" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF2","Invalid Applicant Disabilities Doesn't Fulfill the Service Applied For","الاعاقة أو المرض غير مصنف في برنامج الاعانة المالية");</v>
       </c>
-      <c r="E174" s="4" t="s">
-        <v>2483</v>
+      <c r="E174" s="14" t="s">
+        <v>2482</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>474</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D175" s="4" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF3","Invalid Applicant Is Deceased","وفاة المستفيد");</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>2485</v>
+      <c r="E175" s="14" t="s">
+        <v>2484</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D176" s="4" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF4","Invalid Applicant Is Not Saudi And Doesn't Have A Transient Card"," الجنسية غير سعودي وغير حامل بطاقة تنقل");</v>
       </c>
-      <c r="E176" s="4" t="s">
-        <v>2487</v>
+      <c r="E176" s="14" t="s">
+        <v>2486</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D177" s="4" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF5","Invalid Applicant is Not Handicapped","عدم وجود اعاقة مسجلة للمستفيد");</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>2479</v>
+      <c r="E177" s="14" t="s">
+        <v>2478</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>480</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D178" s="4" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF6","Invalid Applicant Residency in KSA Check","الإقامة خارج المملكة لمدة تزيد عن 90 يوم");</v>
       </c>
-      <c r="E178" s="4" t="s">
-        <v>2490</v>
+      <c r="E178" s="14" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D179" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>return new RejectionMessageDetails("MSG-SCF7","Invalid Applicant Disability Class Is Not Defined","اسقاط المستفيد بسبب عدم وجود فئة استحقاق");</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -15469,57 +15500,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
   </sheetData>
@@ -15560,181 +15591,181 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
@@ -15785,7 +15816,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -15799,7 +15830,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -15813,7 +15844,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -15827,7 +15858,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -15841,7 +15872,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -15855,7 +15886,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -15869,7 +15900,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -15883,7 +15914,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -15897,7 +15928,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -15911,7 +15942,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -15925,7 +15956,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -15939,7 +15970,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -15953,7 +15984,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -15967,7 +15998,7 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -15981,7 +16012,7 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -15995,7 +16026,7 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -16009,7 +16040,7 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -16023,7 +16054,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -16037,7 +16068,7 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -16051,7 +16082,7 @@
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -16065,7 +16096,7 @@
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -16079,7 +16110,7 @@
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -16093,7 +16124,7 @@
         <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -16107,7 +16138,7 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -16121,7 +16152,7 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -16135,2219 +16166,2219 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B28" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C28" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D28" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B29" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C29" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D29" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B30" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C30" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D30" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B31" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C31" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D31" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B32" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C32" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D32" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B33" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C33" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D33" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B34" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C34" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D34" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B35" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C35" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D35" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B36" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C36" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D36" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B37" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C37" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D37" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B38" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C38" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D38" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B39" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="C39" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D39" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B40" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C40" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D40" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B41" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C41" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D41" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B42" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C42" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D42" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B43" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C43" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D43" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B44" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C44" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D44" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B45" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C45" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D45" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B46" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C46" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D46" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B47" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C47" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D47" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B48" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C48" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D48" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B49" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C49" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D49" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B50" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C50" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D50" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B51" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C51" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D51" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B52" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C52" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D52" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B53" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C53" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D53" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B54" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C54" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D54" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B55" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="C55" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D55" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B56" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C56" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D56" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B57" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C57" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D57" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B58" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="C58" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D58" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B59" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="C59" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D59" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B60" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="C60" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D60" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B61" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C61" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D61" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B62" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="C62" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D62" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B63" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="C63" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D63" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B64" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="C64" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D64" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B65" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="C65" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D65" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B66" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="C66" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D66" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B67" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="C67" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D67" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B68" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C68" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D68" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B69" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="C69" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D69" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B70" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="C70" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D70" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B71" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C71" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D71" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B72" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C72" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D72" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B73" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C73" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D73" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B74" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C74" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D74" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B75" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="C75" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D75" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B76" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C76" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D76" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B77" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C77" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D77" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B78" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C78" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D78" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B79" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C79" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D79" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B80" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="C80" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D80" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B81" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C81" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D81" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B82" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="C82" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D82" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B83" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C83" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D83" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B84" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C84" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D84" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B85" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C85" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D85" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B86" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C86" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D86" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B87" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C87" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D87" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B88" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C88" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D88" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B89" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C89" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D89" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B90" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C90" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D90" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B91" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="C91" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D91" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B92" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="C92" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D92" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B93" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C93" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D93" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B94" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C94" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D94" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B95" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C95" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D95" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B96" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C96" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D96" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B97" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C97" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D97" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B98" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C98" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D98" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B99" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="C99" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D99" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B100" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="C100" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D100" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B101" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C101" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D101" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B102" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C102" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D102" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B103" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C103" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D103" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B104" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C104" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D104" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B105" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C105" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D105" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B106" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C106" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D106" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B107" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C107" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D107" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B108" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C108" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D108" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B109" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C109" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D109" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B110" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C110" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D110" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B111" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="C111" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D111" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B112" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C112" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D112" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B113" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C113" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D113" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B114" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C114" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D114" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B115" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C115" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D115" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B116" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C116" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D116" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B117" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C117" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D117" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B118" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C118" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D118" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B119" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C119" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D119" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B120" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="C120" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D120" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B121" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="C121" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D121" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B122" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C122" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D122" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B123" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="C123" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D123" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B124" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="C124" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D124" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B125" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="C125" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D125" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B126" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C126" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D126" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B127" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="C127" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D127" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B128" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="C128" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D128" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B129" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="C129" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D129" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B130" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="C130" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D130" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B131" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="C131" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D131" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B132" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C132" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D132" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B133" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="C133" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D133" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B134" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="C134" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D134" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B135" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="C135" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D135" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B136" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="C136" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D136" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B137" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C137" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D137" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B138" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="C138" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D138" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B139" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="C139" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D139" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B140" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="C140" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D140" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B141" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C141" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D141" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B142" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="C142" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D142" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B143" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="C143" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="D143" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B144" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="C144" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D144" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B145" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="C145" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D145" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B146" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="C146" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D146" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B147" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="C147" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D147" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B148" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="C148" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D148" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B149" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="C149" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D149" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B150" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="C150" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D150" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B151" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="C151" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D151" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B152" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="C152" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D152" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B153" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="C153" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D153" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B154" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="C154" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D154" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B155" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="C155" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D155" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B156" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C156" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D156" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B157" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="C157" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D157" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B158" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="C158" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D158" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B159" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C159" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D159" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B160" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="C160" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D160" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B161" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="C161" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D161" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B162" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C162" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D162" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B163" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="C163" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D163" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B164" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="C164" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D164" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B165" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C165" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D165" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B166" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C166" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D166" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B167" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C167" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D167" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B168" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C168" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D168" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B169" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C169" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D169" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B170" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C170" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D170" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B171" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C171" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D171" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B172" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="C172" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D172" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B173" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="C173" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D173" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B174" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C174" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D174" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B175" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C175" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D175" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B176" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="C176" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D176" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B177" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C177" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D177" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B178" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C178" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D178" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B179" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C179" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D179" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B180" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C180" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D180" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B181" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C181" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D181" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B182" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="C182" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D182" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B183" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C183" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D183" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B184" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C184" t="s">
         <v>2270</v>
       </c>
-      <c r="C184" t="s">
-        <v>2271</v>
-      </c>
       <c r="D184" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B185" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C185" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D185" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
   </sheetData>
@@ -18388,100 +18419,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C2" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D2" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C3" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D3" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C4" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D4" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D5" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C6" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D6" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C7" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D7" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D8" t="s">
         <v>2335</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2336</v>
       </c>
     </row>
   </sheetData>

--- a/MLSD-BOM/resources/DynamicDomains.xlsx
+++ b/MLSD-BOM/resources/DynamicDomains.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="2501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="2519">
   <si>
     <t>Values</t>
   </si>
@@ -7536,6 +7536,60 @@
   </si>
   <si>
     <t>اسقاط المستفيد بسبب عدم وجود فئة استحقاق</t>
+  </si>
+  <si>
+    <t>MSGDE15</t>
+  </si>
+  <si>
+    <t>Invalid Dependent Is Married Or Has Offsprings</t>
+  </si>
+  <si>
+    <t>MSG-DE15</t>
+  </si>
+  <si>
+    <t>اسقاط التابع بسبب أنه متزوج أو له أولاد</t>
+  </si>
+  <si>
+    <t>MSGDE16</t>
+  </si>
+  <si>
+    <t>MSG-DE16</t>
+  </si>
+  <si>
+    <t>Invalid Dependent Is Not A Student</t>
+  </si>
+  <si>
+    <t>اسقاط التابع بسبب انه ليس طالب</t>
+  </si>
+  <si>
+    <t>MSGDE17</t>
+  </si>
+  <si>
+    <t>MSG-DE17</t>
+  </si>
+  <si>
+    <t>MSGDE18</t>
+  </si>
+  <si>
+    <t>Invalid Dependent Marital Status Check</t>
+  </si>
+  <si>
+    <t>MSG-DE18</t>
+  </si>
+  <si>
+    <t>اسقاط التابع بسبب عدم توافق الحالة الاجتماعية</t>
+  </si>
+  <si>
+    <t>MSGCD3</t>
+  </si>
+  <si>
+    <t>MSG-CD3</t>
+  </si>
+  <si>
+    <t>Invalid Dependent is Blacklisted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسقاط التابع بسبب ادراجه ضمن القائمة المحظورة </t>
   </si>
 </sst>
 </file>
@@ -12225,10 +12279,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15311,7 +15365,7 @@
         <v>2465</v>
       </c>
       <c r="D171" s="6" t="str">
-        <f t="shared" ref="D171:D179" si="10">CONCATENATE("return new RejectionMessageDetails(""",C171,"""",",""",B171,"""",",""",E171,""")",";")</f>
+        <f t="shared" ref="D171:D180" si="10">CONCATENATE("return new RejectionMessageDetails(""",C171,"""",",""",B171,"""",",""",E171,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-ML14","Invalid Applicant Is Not DSS Eligible And Applying For Inclusive Support","اسقاط المستفيد بسبب انه غير مسجل في برنامج معاش الضمان الأجتماعي و مقدم في المساعدة مشمولة");</v>
       </c>
       <c r="E171" s="13" t="s">
@@ -15460,6 +15514,96 @@
       </c>
       <c r="E179" s="10" t="s">
         <v>2500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D180" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>return new RejectionMessageDetails("MSG-DE15","Invalid Dependent Is Married Or Has Offsprings","اسقاط التابع بسبب أنه متزوج أو له أولاد");</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D181" s="4" t="str">
+        <f t="shared" ref="D181" si="11">CONCATENATE("return new RejectionMessageDetails(""",C181,"""",",""",B181,"""",",""",E181,""")",";")</f>
+        <v>return new RejectionMessageDetails("MSG-DE16","Invalid Dependent Is Not A Student","اسقاط التابع بسبب انه ليس طالب");</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D182" s="4" t="str">
+        <f t="shared" ref="D182:D184" si="12">CONCATENATE("return new RejectionMessageDetails(""",C182,"""",",""",B182,"""",",""",E182,""")",";")</f>
+        <v>return new RejectionMessageDetails("MSG-DE17","Invalid Dependent Age Check","اسقاط التابع بسبب عدم توافق العمر مع الضوابط ");</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D183" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>return new RejectionMessageDetails("MSG-DE18","Invalid Dependent Marital Status Check","اسقاط التابع بسبب عدم توافق الحالة الاجتماعية");</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D184" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>return new RejectionMessageDetails("MSG-CD3","Invalid Dependent is Blacklisted","اسقاط التابع بسبب ادراجه ضمن القائمة المحظورة ");</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>2518</v>
       </c>
     </row>
   </sheetData>

--- a/MLSD-BOM/resources/DynamicDomains.xlsx
+++ b/MLSD-BOM/resources/DynamicDomains.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="2519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="2543">
   <si>
     <t>Values</t>
   </si>
@@ -7590,6 +7590,78 @@
   </si>
   <si>
     <t xml:space="preserve">اسقاط التابع بسبب ادراجه ضمن القائمة المحظورة </t>
+  </si>
+  <si>
+    <t>MSGME1</t>
+  </si>
+  <si>
+    <t>MSG-ME1</t>
+  </si>
+  <si>
+    <t>MSG-ME2</t>
+  </si>
+  <si>
+    <t>MSGME2</t>
+  </si>
+  <si>
+    <t>MSGME3</t>
+  </si>
+  <si>
+    <t>MSG-ME3</t>
+  </si>
+  <si>
+    <t>عذرا، لا يمكنك تقديم طلب بسبب ان المستفيد غير سعودي وغير حامل لبطاقة تنقل</t>
+  </si>
+  <si>
+    <t>عذرا، لا يمكنك تقديم طلب بسبب ان المستفيد متوفى</t>
+  </si>
+  <si>
+    <t>عذرا، لا يمكنك تقديم طلب ويجب عمل تحديث لبيانات الاعاقة (اجراء تقييم اعاقة) للمستفيد</t>
+  </si>
+  <si>
+    <t>MSGME4</t>
+  </si>
+  <si>
+    <t>MSG-ME4</t>
+  </si>
+  <si>
+    <t>عذرا، لا يمكنك تقديم الطلب المستفيد ملحق في احد الخدمات الايوائية</t>
+  </si>
+  <si>
+    <t>MSGME5</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Is Beneficiary From Equipped Car Service</t>
+  </si>
+  <si>
+    <t>MSG-ME5</t>
+  </si>
+  <si>
+    <t>عزرا، لا يمكنك تقديم الطلب بسبب الاستفادة من خدمة السيارة المجهزة و لم تنتهي المدة النظاميه</t>
+  </si>
+  <si>
+    <t>MSGME6</t>
+  </si>
+  <si>
+    <t>MSG-ME6</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Can't Benefit in More Than One Special-Cases Equipment</t>
+  </si>
+  <si>
+    <t>عزرا، لا يمكنك الاستفادة من اكثر من جهاز واحد مواصفات خاصة</t>
+  </si>
+  <si>
+    <t>MSGME7</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Exceeded The Number Of Medical Equipments In The Request</t>
+  </si>
+  <si>
+    <t>MSG-ME7</t>
+  </si>
+  <si>
+    <t>عزرا، تم تجاوز عدد الاجهزه الطبية في الطلب</t>
   </si>
 </sst>
 </file>
@@ -7668,9 +7740,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7679,7 +7748,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12279,50 +12353,50 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18" style="4" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18" style="6" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="6" t="str">
         <f t="shared" ref="D2:D34" si="0">CONCATENATE("return new RejectionMessageDetails(""",C2,"""",",""",B2,"""",",""",E2,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-AA","Invalid Applicant Age Check","اسقاط المستفيد بسبب عدم توافق العمر مع نوع الخدمة");</v>
       </c>
@@ -12331,16 +12405,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-AS1","Invalid Applicant Assets Eligibility","اسقاط المستفيد بسبب عدم تحقيق شروط امتلاك العقارات");</v>
       </c>
@@ -12349,16 +12423,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-B1","Invalid Applicant Is In Prison","اسقاط المستفيد بسبب وجوده بالسجن");</v>
       </c>
@@ -12367,16 +12441,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-B10","Invalid Segment Validation Check","اسقاط المستفيد بسبب عدم صحة حيثية الخدمة التي تم التقدم عليها");</v>
       </c>
@@ -12385,16 +12459,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-B3","Invalid Applicant is Not Saudi And Doesn't Have A Transient Card","اسقاط المستفيد بسبب الجنسية (غير سعودي وغير حامل بطاقة تنقل)");</v>
       </c>
@@ -12403,16 +12477,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-B4","Invalid Applicant Exceeds The Absence Duration From KSA","اسقاط المستفيد بسبب تجاوزه المدة المحددة خارج المملكة ");</v>
       </c>
@@ -12421,16 +12495,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-B5","Invalid Beneficiary Check","اسقاط المستفيد بسبب تسجيله مسبقاً كتابع أو مستفيد رئيسي  ");</v>
       </c>
@@ -12439,16 +12513,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-B6","Invalid Applicant Lives In Government House","اسقاط المستفيد بسبب تواجده في مراكز إيواء حكومية ");</v>
       </c>
@@ -12457,16 +12531,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-B7","Applicant Documents Are Invalid","اسقاط المستفيد بسبب عدم صحة المستندات المقدمة");</v>
       </c>
@@ -12475,16 +12549,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-B8","Invalid Income Validation Check ","اسقاط مستفيد بسبب تجاوز الحد المانع للدخل ");</v>
       </c>
@@ -12493,16 +12567,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-B9","Invalid Applicant Age Check","اسقاط المستفيد بسبب عدم توافق العمر مع نوع الخدمة");</v>
       </c>
@@ -12511,16 +12585,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-C08","Invalid Applicant Residency in KSA Check","اسقاط المستفيد بسبب تجاوزه المدة المحددة خارج المملكة ");</v>
       </c>
@@ -12529,16 +12603,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-C09","Invalid Applicant Residency in Government House","اسقاط المستفيد بسبب تواجده في مراكز إيواء حكومية ");</v>
       </c>
@@ -12547,16 +12621,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-C1","Invalid Applicant Is Not Saudi And Doesn't Have A Transient Card","اسقاط المستفيد بسبب الجنسية (غير سعودي وغير حامل بطاقة تنقل)");</v>
       </c>
@@ -12565,16 +12639,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-C10","Invalid Applicant is Not Saudi","اسقاط المستفيد بسبب الجنسية (غير سعودي)");</v>
       </c>
@@ -12583,16 +12657,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-C11","Invalid Applicant Doesn't have A Transient Card","اسقاط المستفيد بسبب الجنسية (غير حامل بطاقة تنقل)");</v>
       </c>
@@ -12601,16 +12675,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-C2","Invalid Applicant Private Business Ownership","اسقاط المستفيد بسبب وجود رخصة نشاط تجاري");</v>
       </c>
@@ -12619,16 +12693,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-C3","Invalid Applicant is Blacklisted","اسقاط المستفيد بسبب ادراجه ضمن القائمة المحظورة ");</v>
       </c>
@@ -12637,16 +12711,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-C4","Invalid Applicant Is Deceased","اسقاط المستفيد بسبب الوفاة");</v>
       </c>
@@ -12655,16 +12729,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-C5","Invalid Applicant Employment Is An Employee","اسقاط المستفيد بسبب انه على رأس العمل");</v>
       </c>
@@ -12673,16 +12747,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-C6","Invalid Applicant Has At least One Commercial Worker","اسقاط المستفيد بسبب ان لديه عمالة مهنية");</v>
       </c>
@@ -12691,16 +12765,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-C7","Invalid Applicant Home Labor Specifications","اسقاط المستفيد بسبب عدم توافق شروط العمالة المنزلية");</v>
       </c>
@@ -12709,16 +12783,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D01","Invalid Applicant Age For Disabled Work Segment","اسقاط المستفيد بسبب عدم توافق العمر مع نوع الخدمة");</v>
       </c>
@@ -12727,16 +12801,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D10","Invalid Dependent Is In Prison","اسقاط التابع بسبب وجوده بالسجن");</v>
       </c>
@@ -12745,16 +12819,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D11","Invalid Dependent Residency In KSA","اسقاط التابع بسبب تجاوزه المدة المحددة خارج المملكة ");</v>
       </c>
@@ -12763,16 +12837,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D12","Invalid Dependent Lives In Government House","اسقاط التابع بسبب تواجده في مراكز إيواء حكومية ");</v>
       </c>
@@ -12781,16 +12855,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D13","Invalid Dependent Is Subsidy Beneficiary","اسقاط التابع بسبب تسجيله مسبقاً كتابع أو مستفيد رئيسي  ");</v>
       </c>
@@ -12799,16 +12873,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>2455</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D14","Invalid Dependent Private Business Check","اسقاط التابع بسبب وجود رخصة نشاط تجاري");</v>
       </c>
@@ -12817,16 +12891,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>2451</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>2452</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>2453</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D15","Invalid Dependent Doesn't Exists In NIC","اسقاط التابع بسبب انه غير متواجد في بيانات ان اي سي ");</v>
       </c>
@@ -12835,16 +12909,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D1-1","Invalid Applicant Is Female and Can Not Have Dependent Wives","اسقاط التابع (زوجة المستفيد) بسبب عدم توافق جنس المستفيد مع الضوابط ");</v>
       </c>
@@ -12853,16 +12927,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="D32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D1-2","Invalid Applicant Is Not Married and Can Not Have Dependent Wives","اسقاط التابع (زوجة المستفيد) بسبب عدم توافق الحالة الاجتماعية للمستفيد مع الضوابط ");</v>
       </c>
@@ -12871,16 +12945,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D33" s="4" t="str">
+      <c r="D33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D1-3","Invalid Wife Gender Is Male","اسقاط التابع (زوجة المستفيد) بسبب عدم توافق جنس التابع مع الضوابط ");</v>
       </c>
@@ -12889,16 +12963,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D1-4","Invalid Wife Marital Status Is Not Married","اسقاط التابع (زوجة المستفيد) بسبب عدم توافق الحالة الاجتماعية للزوجة مع الضوابط ");</v>
       </c>
@@ -12907,16 +12981,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="6" t="str">
         <f t="shared" ref="D35:D66" si="1">CONCATENATE("return new RejectionMessageDetails(""",C35,"""",",""",B35,"""",",""",E35,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-D2","Invalid Applicant Is Not Permanently Disabled","اسقاط المستفيد بسبب عدم تحقق ضوابط الإعاقة الدائمة ");</v>
       </c>
@@ -12925,16 +12999,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D2-1","Invalid Applicant Marital Status Check","اسقاط المستفيد بسبب عدم توافق الحالة الاجتماعية مع الضوابط ");</v>
       </c>
@@ -12943,16 +13017,16 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="D37" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D2-2","Invalid Offspring Marital Status Check","اسقاط التابع (الابناء) بسبب عدم توافق الحالة الاجتماعية مع الضوابط ");</v>
       </c>
@@ -12961,16 +13035,16 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D2-3","Invalid Offspring has Offsprings Under Custody","اسقاط التابع بسبب وجود تابعين لديه  ");</v>
       </c>
@@ -12979,16 +13053,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D39" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D3","Invalid Applicant Is Not Temporarily Disabled","اسقاط المستفيد بسبب عدم تحقق ضوابط الإعاقة المؤقتة  ");</v>
       </c>
@@ -12997,16 +13071,16 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D3-1","Invalid Sibling Guardianship Is Not The Applicant","اسقاط التابع (الاخوة) بسبب انه ليس تحت رعاية المستفيد");</v>
       </c>
@@ -13015,16 +13089,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D41" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D3-2","Invalid Sibling Marital Status Is Married","اسقاط التابع (الاخوة) بسبب عدم توافق الحالة الاجتماعية مع الضوابط");</v>
       </c>
@@ -13033,16 +13107,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D42" s="4" t="str">
+      <c r="D42" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D3-3","Invalid Applicant Is Single and Can Not Have Dependent Offsprings","اسقاط التابع (الابناء) بسبب عدم توافق الحالة الاجتماعية للمستفيد مع الضوابط ");</v>
       </c>
@@ -13051,16 +13125,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D3-4","Invalid Offspring Marital Status Is Married","اسقاط التابع (الابناء) بسبب الحالة الاجتماعية (متزوج أو متزوجة)");</v>
       </c>
@@ -13069,16 +13143,16 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D44" s="4" t="str">
+      <c r="D44" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D4","Invalid Applicant Disability Report Date Plus Medication Period Is Less Than Today","اسقاط المستفيد بسبب تجاوز مدة صلاحية التقرير الطبي");</v>
       </c>
@@ -13087,16 +13161,16 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D45" s="4" t="str">
+      <c r="D45" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D404","Invalid Applicant Permanent Disability Report Date","اسقاط المستفيد بسبب انتهاء مدة التقرير الطبي الخاص بالإعاقة الدائمة ");</v>
       </c>
@@ -13105,16 +13179,16 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D46" s="4" t="str">
+      <c r="D46" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D5","Invalid Father Guardianship Status Check","اسقاط التابع (الاب) بسبب عدم صحة تكوين الاسرة  ");</v>
       </c>
@@ -13123,16 +13197,16 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D47" s="4" t="str">
+      <c r="D47" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D6","Invalid Mother Is Not Guardian For The Applicant","اسقاط التابع (الأم) بسبب عدم صحة العلاقة مع المستفيد الرئيسي ");</v>
       </c>
@@ -13141,16 +13215,16 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D48" s="4" t="str">
+      <c r="D48" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D7","Invalid Under Custody Dependent Is Not Under The Custody Of the Applicant","اسقاط التابع بسبب عدم صحة العلاقة مع المستفيد الرئيسي ");</v>
       </c>
@@ -13159,16 +13233,16 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="4" t="str">
+      <c r="D49" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D8","Invalid Dependent Age Check","اسقاط التابع بسبب عدم توافق العمر مع الضوابط ");</v>
       </c>
@@ -13177,16 +13251,16 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D50" s="4" t="str">
+      <c r="D50" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-D9","Invalid Dependent Is Deceased","اسقاط التابع بسبب الوفاة  ");</v>
       </c>
@@ -13195,16 +13269,16 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D51" s="4" t="str">
+      <c r="D51" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-DC1","Invalid Dependent Is Not Alive","اسقاط التابع بسبب الوفاة  ");</v>
       </c>
@@ -13213,16 +13287,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D52" s="4" t="str">
+      <c r="D52" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-DC2","Invalid Dependent Home Labor Specifications","اسقاط التابع بسبب عدم توافق شروط العمالة المنزلية");</v>
       </c>
@@ -13231,16 +13305,16 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D53" s="4" t="str">
+      <c r="D53" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-DC3","Invalid Dependent Is Not Saudi And Does Not Have A Transient Card","اسقاط التابع بسبب الجنسية (غير سعودي وغير حامل بطاقة تنقل)");</v>
       </c>
@@ -13249,16 +13323,16 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D54" s="4" t="str">
+      <c r="D54" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-DC4","Invalid Dependent Has Commercial Workers","اسقاط التابع بسبب ان لديه عمالة مهنية");</v>
       </c>
@@ -13267,16 +13341,16 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D55" s="4" t="str">
+      <c r="D55" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-DC5","Invalid Dependent Is Employed","اسقاط التابع بسبب انه على رأس العمل");</v>
       </c>
@@ -13285,16 +13359,16 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D56" s="4" t="str">
+      <c r="D56" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-DC6","Invalid Dependent Asset Eligibility","اسقاط التابع بسبب عدم تحقيق شروط امتلاك العقارات");</v>
       </c>
@@ -13303,16 +13377,16 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D57" s="4" t="str">
+      <c r="D57" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-DD4","Invalid Husband Of The Applicant Does Not Meet The Requirements","اسقاط التابع (الزوج) بسبب عدم تحقق الضوابط اللازمة");</v>
       </c>
@@ -13321,16 +13395,16 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D58" s="4" t="str">
+      <c r="D58" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-DE11","Invalid Dependent Wife Is A Beneficiary","اسقاط التابع (الزوجة) بسبب كونها مستفيد");</v>
       </c>
@@ -13339,16 +13413,16 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="D59" s="4" t="str">
+      <c r="D59" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-DE12","Invalid Dependent Wife Is Employed","اسقاط التابع (الزوجة) بسبب انها على رأس العمل");</v>
       </c>
@@ -13357,16 +13431,16 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D60" s="4" t="str">
+      <c r="D60" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-DE13","Invalid Dependent Does Not Meet Requirements For Brothers and Sons Eligibility","اسقاط التابع لعدم صحة إضافة تابع (الأخ أو الابن) ضمن الخدمة المتقدم عليها ");</v>
       </c>
@@ -13375,16 +13449,16 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D61" s="4" t="str">
+      <c r="D61" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-DE14","Invalid Dependent Does Not Meet Requirements For Sisters and Daughters Eligibility","اسقاط التابع لعدم صحة إضافة تابع (الأخت أو الابنة) ضمن الخدمة المتقدم عليها ");</v>
       </c>
@@ -13393,16 +13467,16 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D62" s="4" t="str">
+      <c r="D62" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-F31","Invalid Applicant And Dependents Nationality check","اسقاط المستفيد بسبب عدم وجود أبناء سعوديين تابعين لها");</v>
       </c>
@@ -13411,16 +13485,16 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D63" s="4" t="str">
+      <c r="D63" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-FA","Invalid Female Applicant Check","اسقاط المستفيد بسبب عدم توافق الجنس مع نوع الخدمة");</v>
       </c>
@@ -13429,16 +13503,16 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D64" s="4" t="str">
+      <c r="D64" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-FS1","Invalid Family Segment Check","اسقاط المستفيد بسبب عدم صحة الحيثية التي تم التقدم عليها");</v>
       </c>
@@ -13447,16 +13521,16 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D65" s="4" t="str">
+      <c r="D65" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-G02","Invalid Applicant Age For Sub-Segment Family With No Provider Child Is Applicant","اسقاط المستفيد بسبب عدم توافق العمر مع الضوابط المحددة والخاصة بخدمة أسرة بلا عائل");</v>
       </c>
@@ -13465,16 +13539,16 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D66" s="4" t="str">
+      <c r="D66" s="6" t="str">
         <f t="shared" si="1"/>
         <v>return new RejectionMessageDetails("MSG-G11","Invalid Applicant Is Not Male","اسقاط المستفيد بسبب عدم توافق الجنس مع نوع الخدمة (المستفيد أنثى)");</v>
       </c>
@@ -13483,16 +13557,16 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D67" s="4" t="str">
+      <c r="D67" s="6" t="str">
         <f t="shared" ref="D67:D100" si="2">CONCATENATE("return new RejectionMessageDetails(""",C67,"""",",""",B67,"""",",""",E67,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-G12","Invalid Applicant Is Not Female","اسقاط المستفيد بسبب عدم توافق الجنس مع نوع الخدمة (المستفيد ذكر)");</v>
       </c>
@@ -13501,16 +13575,16 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D68" s="4" t="str">
+      <c r="D68" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G202","Invalid Applicant Age For Segment Orphan Deceased/Unknown Father","اسقاط المستفيد بسبب عدم توافق العمر مع الضوابط المحددة والخاصة بخدمة الايتام مجهولي الاب");</v>
       </c>
@@ -13519,16 +13593,16 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D69" s="4" t="str">
+      <c r="D69" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G31","Invalid Applicant Father Is Alive","اسقاط المستفيد بسبب عدم وفاة الأب ");</v>
       </c>
@@ -13537,16 +13611,16 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D70" s="4" t="str">
+      <c r="D70" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G32","Invalid Applicant Father Is Not Alive","اسقاط المستفيد بسبب وفاة الأب ");</v>
       </c>
@@ -13555,16 +13629,16 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D71" s="4" t="str">
+      <c r="D71" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G33","Invalid Applicant Father Is Not Unknown","اسقاط المستفيد بسبب توفر بيانات الأب (غير مجهول)");</v>
       </c>
@@ -13573,16 +13647,16 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D72" s="4" t="str">
+      <c r="D72" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G41","Invalid Applicant Marital Status Is Not Single","اسقاط المستفيد بسبب الحالة الاجتماعية (غير أعزب) ");</v>
       </c>
@@ -13591,16 +13665,16 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D73" s="4" t="str">
+      <c r="D73" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-B2","Invalid Applicant Is Deceased","اسقاط المستفيد بسبب الوفاة ");</v>
       </c>
@@ -13609,16 +13683,16 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D74" s="4" t="str">
+      <c r="D74" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G42","Invalid Applicant Marital Status Is Not Married","اسقاط المستفيد بسبب الحالة الاجتماعية (غير متزوج) ");</v>
       </c>
@@ -13627,16 +13701,16 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D75" s="4" t="str">
+      <c r="D75" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G43","Invalid Applicant Marital Status Is Not Divorced","اسقاط المستفيد بسبب الحالة الاجتماعية (غير مطلق) ");</v>
       </c>
@@ -13645,16 +13719,16 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D76" s="4" t="str">
+      <c r="D76" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G44","Invalid Applicant Marital Status Is Not Widowed","اسقاط المستفيد بسبب الحالة الاجتماعية (غير أرمل) ");</v>
       </c>
@@ -13663,16 +13737,16 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D77" s="4" t="str">
+      <c r="D77" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G51","Invalid Applicant Sibling Is Beneficiary","اسقاط المستفيد بسبب كون أحد التابعين (الاخوة) مستفيد");</v>
       </c>
@@ -13681,16 +13755,16 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D78" s="4" t="str">
+      <c r="D78" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G52","Invalid Beneficiary Family Member Check","اسقاط المستفيد بسبب كونه ليس من أسرة ضمانية ");</v>
       </c>
@@ -13699,16 +13773,16 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D79" s="4" t="str">
+      <c r="D79" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G61","Invalid Applicant Has At Least One Offspring","اسقاط المستفيد بسبب أن لديه تابعين (أبناء) ");</v>
       </c>
@@ -13717,16 +13791,16 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="D80" s="4" t="str">
+      <c r="D80" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G62","Invalid Applicant Has No Offsprings","اسقاط المستفيد بسبب أن ليس لديه تابعين (أبناء) ");</v>
       </c>
@@ -13735,16 +13809,16 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D81" s="4" t="str">
+      <c r="D81" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G63","Invalid Applicant Is A Dependent","اسقاط المستفيد بسبب تسجيله مسبقاً كتابع ");</v>
       </c>
@@ -13753,16 +13827,16 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D82" s="4" t="str">
+      <c r="D82" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G71","Invalid Applicant Husband Is Not Abandoned","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (الزوجة غير مهجورة)");</v>
       </c>
@@ -13771,16 +13845,16 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D83" s="4" t="str">
+      <c r="D83" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G72","Invalid Applicant Husband Is Not Absent","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (الزوج غير متغيب)");</v>
       </c>
@@ -13789,16 +13863,16 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D84" s="4" t="str">
+      <c r="D84" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G73","Invalid Applicant Father Is Not Absent","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (الأب غير متغيب)");</v>
       </c>
@@ -13807,16 +13881,16 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D85" s="4" t="str">
+      <c r="D85" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G74","Invalid Applicant Husband Is Not Imprisoned","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (الزوج غير مسجون)");</v>
       </c>
@@ -13825,16 +13899,16 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D86" s="4" t="str">
+      <c r="D86" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G75","Invalid Applicant Father Is Not Imprisoned","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (الأب غير مسجون)");</v>
       </c>
@@ -13843,16 +13917,16 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D87" s="4" t="str">
+      <c r="D87" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G76","Invalid Applicant Husband Is Not Drug Addict","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (الزوج غير مدمن)");</v>
       </c>
@@ -13861,16 +13935,16 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D88" s="4" t="str">
+      <c r="D88" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G77","Invalid Applicant Father Is Not A Drug Addict","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (الأب غير مدمن)");</v>
       </c>
@@ -13879,16 +13953,16 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D89" s="4" t="str">
+      <c r="D89" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G81","Invalid Applicant Husband Is Not Incapacitated","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (الزوج غير فاقد الأهلية)");</v>
       </c>
@@ -13897,16 +13971,16 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D90" s="4" t="str">
+      <c r="D90" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G82","Invalid Applicant Father Is Not Incapacitated","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (الأب غير فاقد الأهلية)");</v>
       </c>
@@ -13915,16 +13989,16 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D91" s="4" t="str">
+      <c r="D91" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G83","Invalid Applicant Father Drug Addiction Report Date Is Expired","اسقاط المستفيد بسبب انتهاء مدة التقرير الطبي للإدمان الخاص بالأب ");</v>
       </c>
@@ -13933,16 +14007,16 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D92" s="4" t="str">
+      <c r="D92" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-G84","Invalid Applicant Husband Drug Addiction Report Date Is Expired","اسقاط المستفيد بسبب انتهاء مدة التقرير الطبي للإدمان الخاص بالزوج ");</v>
       </c>
@@ -13951,16 +14025,16 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D93" s="4" t="str">
+      <c r="D93" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-IS1","Invalid Individual Segment Check","اسقاط المستفيد بسبب عدم صحة الخدمة التي تم التقدم عليها");</v>
       </c>
@@ -13969,16 +14043,16 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D94" s="4" t="str">
+      <c r="D94" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-O01","Invalid Applicant Mother Is A Beneficiary","اسقاط المستفيد بسبب كون الأم مستفيدة ");</v>
       </c>
@@ -13987,16 +14061,16 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D95" s="4" t="str">
+      <c r="D95" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-OW11","Other Woman Segment Invalid Applicant is Less Than 35 Years Old","اسقاط المستفيد بسبب عدم توافق العمر مع نوع الخدمة");</v>
       </c>
@@ -14005,16 +14079,16 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D96" s="4" t="str">
+      <c r="D96" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-OW2","Applicant Not Eligible For Sub-Segment Other Woman Beneficiary Family Handicapped","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (معاقة من اسرة ضمانية)");</v>
       </c>
@@ -14023,16 +14097,16 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D97" s="4" t="str">
+      <c r="D97" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-P1","Invalid Private Business Declaration Check","اسقاط المستفيد بسبب عدم الإفصاح عن وجود رخصة نشاط تجاري");</v>
       </c>
@@ -14041,16 +14115,16 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D98" s="4" t="str">
+      <c r="D98" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-S0","Invalid Applicant For Elderly Segment","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (سن الشيخوخة)");</v>
       </c>
@@ -14059,16 +14133,16 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D99" s="4" t="str">
+      <c r="D99" s="6" t="str">
         <f t="shared" ref="D99:D103" si="3">CONCATENATE("return new RejectionMessageDetails(""",C99,"""",",""",B99,"""",",""",E99,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-S2","Invalid Applicant Does Not Have A Disabling Disease","اسقاط المستفيد حامل بطاقة تنقل بسبب عدم توافق الخدمة مع الضوابط المحددة (سن الشيخوخة وليس لديه أمراض مسببة للإعاقة)");</v>
       </c>
@@ -14077,16 +14151,16 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="D100" s="4" t="str">
+      <c r="D100" s="6" t="str">
         <f t="shared" si="2"/>
         <v>return new RejectionMessageDetails("MSG-BSS","Invalid Applicant Beneficiary Sub-Segment","اسقاط المستفيد بسبب عدم صحة الحيثية التي تم التقدم عليها");</v>
       </c>
@@ -14095,16 +14169,16 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="D101" s="4" t="str">
+      <c r="D101" s="6" t="str">
         <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-OS","Invalid Applicant Salary Above 3000","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (يتيم مجهول الابوين)");</v>
       </c>
@@ -14113,16 +14187,16 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="D102" s="4" t="str">
+      <c r="D102" s="6" t="str">
         <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SD","Invalid Applicant Status Report Date Is Expired","اسقاط المستفيد بسبب انتهاء مدة تقرير الحالة ");</v>
       </c>
@@ -14131,16 +14205,16 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="D103" s="4" t="str">
+      <c r="D103" s="6" t="str">
         <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-FO","Invalid Applicant Mother Does Not have Eligible Dependents","اسقاط المستفيد بسبب عدم وجود مستفيدين مع الأم");</v>
       </c>
@@ -14148,7 +14222,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>1578</v>
       </c>
@@ -14167,13 +14241,13 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="6" t="s">
         <v>1597</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="6" t="s">
         <v>1583</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="6" t="s">
         <v>1582</v>
       </c>
       <c r="D105" s="6" t="str">
@@ -14185,13 +14259,13 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="6" t="s">
         <v>1598</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="6" t="s">
         <v>1586</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="6" t="s">
         <v>1585</v>
       </c>
       <c r="D106" s="6" t="str">
@@ -14203,13 +14277,13 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="6" t="s">
         <v>1599</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="6" t="s">
         <v>1588</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="6" t="s">
         <v>1587</v>
       </c>
       <c r="D107" s="6" t="str">
@@ -14221,13 +14295,13 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="6" t="s">
         <v>1600</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="6" t="s">
         <v>1591</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="6" t="s">
         <v>1590</v>
       </c>
       <c r="D108" s="6" t="str">
@@ -14239,13 +14313,13 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="6" t="s">
         <v>1601</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="6" t="s">
         <v>2496</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="6" t="s">
         <v>1592</v>
       </c>
       <c r="D109" s="6" t="str">
@@ -14257,13 +14331,13 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="6" t="s">
         <v>1602</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="6" t="s">
         <v>1594</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="6" t="s">
         <v>1593</v>
       </c>
       <c r="D110" s="6" t="str">
@@ -14275,13 +14349,13 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="6" t="s">
         <v>1603</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="6" t="s">
         <v>1596</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="6" t="s">
         <v>1595</v>
       </c>
       <c r="D111" s="6" t="str">
@@ -14293,13 +14367,13 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="6" t="s">
         <v>1604</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="6" t="s">
         <v>1605</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="6" t="s">
         <v>1606</v>
       </c>
       <c r="D112" s="6" t="str">
@@ -14311,13 +14385,13 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="6" t="s">
         <v>1607</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="6" t="s">
         <v>1608</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="6" t="s">
         <v>1609</v>
       </c>
       <c r="D113" s="6" t="str">
@@ -14329,16 +14403,16 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="6" t="s">
         <v>1612</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="6" t="s">
         <v>1613</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="6" t="s">
         <v>1614</v>
       </c>
-      <c r="D114" s="4" t="str">
+      <c r="D114" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC11","Invalid Applicant Head Of House Hold Income","اسقاط المستفيد بسبب عدم توافق دخل عائل الاسرة مع الخدمة");</v>
       </c>
@@ -14347,16 +14421,16 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="6" t="s">
         <v>1615</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="6" t="s">
         <v>1618</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="6" t="s">
         <v>1616</v>
       </c>
-      <c r="D115" s="4" t="str">
+      <c r="D115" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC12","Invalid Applicant is Beneficiary From a Car Lifter Equipment And Not Expired","اسقاط المستفيد بسبب انه مستفيد من جهاز رافعة السيارة و لم تنتهي المدة النظامية");</v>
       </c>
@@ -14365,16 +14439,16 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="6" t="s">
         <v>1619</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="6" t="s">
         <v>1620</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="6" t="s">
         <v>1621</v>
       </c>
-      <c r="D116" s="4" t="str">
+      <c r="D116" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC13","Invalid Applicant Period of Beneficiary From An Equipped Car","اسقاط المستفيد بسبب عدم توافق المدة المحددة للاستفادة من السيارة المجهزة");</v>
       </c>
@@ -14383,16 +14457,16 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="6" t="s">
         <v>1623</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="6" t="s">
         <v>1624</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="6" t="s">
         <v>1625</v>
       </c>
-      <c r="D117" s="4" t="str">
+      <c r="D117" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC14","Invalid Applicant Nationality Is Not An Arabian Country","اسقاط المستفيد بسبب الجنسية لبست من احد الدول العربية");</v>
       </c>
@@ -14401,16 +14475,16 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="6" t="s">
         <v>1627</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="6" t="s">
         <v>1628</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="6" t="s">
         <v>1629</v>
       </c>
-      <c r="D118" s="4" t="str">
+      <c r="D118" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC15","Invalid Applicant is Not Valid For Job Rehabilitation Service","اسقاط المستفيد بسبب انه غير صالح للتأهيل المهني");</v>
       </c>
@@ -14419,16 +14493,16 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="6" t="s">
         <v>1631</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="6" t="s">
         <v>1632</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="6" t="s">
         <v>1633</v>
       </c>
-      <c r="D119" s="4" t="str">
+      <c r="D119" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC16","Invalid Applicant Disability Assesment Is Not Valid","اسقاط المستفيد بسبب انتهاء صلاحية اخر تقيم للاعاقة");</v>
       </c>
@@ -14437,16 +14511,16 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="6" t="s">
         <v>1635</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="6" t="s">
         <v>1638</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="6" t="s">
         <v>1636</v>
       </c>
-      <c r="D120" s="4" t="str">
+      <c r="D120" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC17","Invalid Applicant Mental Disability","اسقاط المستفيد بسبب الاعاقة العقلية");</v>
       </c>
@@ -14455,16 +14529,16 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="6" t="s">
         <v>1639</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="6" t="s">
         <v>1640</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="6" t="s">
         <v>1641</v>
       </c>
-      <c r="D121" s="4" t="str">
+      <c r="D121" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC18","Invalid Requested Medical Equipment is Available from Military Sectors","اسقاط المستفيد بسبب الجهاز المطلوب غير مستثناة من رعاية صحية من القطاعات العسكرية");</v>
       </c>
@@ -14473,16 +14547,16 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="6" t="s">
         <v>1643</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="6" t="s">
         <v>1644</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="6" t="s">
         <v>1646</v>
       </c>
-      <c r="D122" s="4" t="str">
+      <c r="D122" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC19","Invalid Requested Medical Equipment is Primary and The Applicant Has Reached The Limit","اسقاط المستفيد بسبب الجهاز المطلوب جهاز رئيسي و المستفيد وصل للحد الأقصى للاجهزه الرئيسية");</v>
       </c>
@@ -14491,16 +14565,16 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="6" t="s">
         <v>1647</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="6" t="s">
         <v>1648</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="6" t="s">
         <v>1649</v>
       </c>
-      <c r="D123" s="4" t="str">
+      <c r="D123" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC20","Invalid Applicant Is Requesting a Conflicting Equipment","اسقاط المستفيد بسبب الجهاز المطلوب متعارض مع اجهزة المستفيد");</v>
       </c>
@@ -14509,16 +14583,16 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="6" t="s">
         <v>1652</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="6" t="s">
         <v>1653</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="6" t="s">
         <v>1654</v>
       </c>
-      <c r="D124" s="4" t="str">
+      <c r="D124" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC21","Invalid Applicant Requested a Conflicting Home Worker","اسقاط المستفيد بسبب نوع العمالة المنزلية المطلوبة مماثلة للعمالة الحالية");</v>
       </c>
@@ -14527,16 +14601,16 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="6" t="s">
         <v>1655</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="6" t="s">
         <v>1656</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="6" t="s">
         <v>1657</v>
       </c>
-      <c r="D125" s="4" t="str">
+      <c r="D125" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC22","Invalid Applicant Doesn't Meet The Required Age For the Requested Equipment","اسقاط المستفيد بسبب السن لا يتناسب مع السن المطلوب للجهاز");</v>
       </c>
@@ -14545,16 +14619,16 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="6" t="s">
         <v>1659</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="6" t="s">
         <v>1660</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="6" t="s">
         <v>1661</v>
       </c>
-      <c r="D126" s="4" t="str">
+      <c r="D126" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC23","Invalid Applicant Doesn't Meet the Eligible Disabilities Of the Requested Equipment","اسقاط المستفيد بسبب عدم توفر الاعاقة المستحقة للجهاز المطلوب");</v>
       </c>
@@ -14563,16 +14637,16 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="6" t="s">
         <v>1663</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="6" t="s">
         <v>1664</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="6" t="s">
         <v>1665</v>
       </c>
-      <c r="D127" s="4" t="str">
+      <c r="D127" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC24","Invalid Applicant Meets the InEligible Disabilities Of the Requested Equipment","اسقاط المستفيد بسبب توفر اعاقة غير مستحقة للجهاز المطلوب");</v>
       </c>
@@ -14581,16 +14655,16 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="6" t="s">
         <v>1667</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="6" t="s">
         <v>1668</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="6" t="s">
         <v>1669</v>
       </c>
-      <c r="D128" s="4" t="str">
+      <c r="D128" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC25","Invalid Applicant Have A Conflicting Equipment With The Requested One","اسقاط المستفيد بسبب توفر جهاز متعارض مع الجهاز المطلوب");</v>
       </c>
@@ -14599,16 +14673,16 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="6" t="s">
         <v>1716</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="6" t="s">
         <v>1717</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="6" t="s">
         <v>1718</v>
       </c>
-      <c r="D129" s="4" t="str">
+      <c r="D129" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC26","Invalid Applicant Is Not Living In A Ministerial Facility","اسقاط المستفيد بسبب السكن ليس المؤسسات أو الدور الأجتماعية تابعة للوزارة");</v>
       </c>
@@ -14617,16 +14691,16 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="6" t="s">
         <v>1720</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="6" t="s">
         <v>1721</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="6" t="s">
         <v>1722</v>
       </c>
-      <c r="D130" s="4" t="str">
+      <c r="D130" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC27","Invalid Applicant Father is Not Deceased And Not Unknown","اسقاط المستفيد بسبب حالة الأب غير متوفي و غير مجهول");</v>
       </c>
@@ -14635,16 +14709,16 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="6" t="s">
         <v>1724</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="6" t="s">
         <v>1725</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="6" t="s">
         <v>1726</v>
       </c>
-      <c r="D131" s="4" t="str">
+      <c r="D131" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC28","Invalid Applicant Gender And Marital Status Is Not Valid","اسقاط المستفيد بسبب عدم توافق النوع و الحالة الاجتماعية مع نوع الخدمة");</v>
       </c>
@@ -14653,16 +14727,16 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="6" t="s">
         <v>1728</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="6" t="s">
         <v>1729</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="6" t="s">
         <v>1730</v>
       </c>
-      <c r="D132" s="4" t="str">
+      <c r="D132" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC29","Invalid Applicant Received Marriage Reward Before","اسقاط المستفيد بسبب أنه أستلم مكافئة زواج من قبل");</v>
       </c>
@@ -14671,16 +14745,16 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="6" t="s">
         <v>1732</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="6" t="s">
         <v>1733</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="6" t="s">
         <v>1734</v>
       </c>
-      <c r="D133" s="4" t="str">
+      <c r="D133" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC30","Invalid Applicant Educational Level Is Other","اسقاط المستفيد بسبب عدم توافق المرحلة الدراسية مع نوع الخدمة");</v>
       </c>
@@ -14689,16 +14763,16 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="6" t="s">
         <v>1736</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="6" t="s">
         <v>1737</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="6" t="s">
         <v>1738</v>
       </c>
-      <c r="D134" s="4" t="str">
+      <c r="D134" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC31","Invalid Applicant Doesn't Live In Elderly Care","اسقاط المستفيد بسبب عدم تواجده في دار مسنين او مسنات");</v>
       </c>
@@ -14707,16 +14781,16 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="6" t="s">
         <v>2272</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="6" t="s">
         <v>2273</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="6" t="s">
         <v>2274</v>
       </c>
-      <c r="D135" s="4" t="str">
+      <c r="D135" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC32","Invalid Applicant Number Of Offsprings Exceeds The Limit","اسقاط المستفيد بسبب تجاوز حد الابناء المسموح للأسرة");</v>
       </c>
@@ -14725,16 +14799,16 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="6" t="s">
         <v>2276</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="6" t="s">
         <v>2277</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="6" t="s">
         <v>2278</v>
       </c>
-      <c r="D136" s="4" t="str">
+      <c r="D136" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC33","Invalid Applicant Is Not Beneficiary In Social Security","اسقاط التابع بسبب أنه غير مسجل في برنامج معاش الضمان الأجتماعي");</v>
       </c>
@@ -14743,16 +14817,16 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="6" t="s">
         <v>2280</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="6" t="s">
         <v>2281</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="6" t="s">
         <v>2283</v>
       </c>
-      <c r="D137" s="4" t="str">
+      <c r="D137" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC34","Invalid Orphan Is Deceased","اسقاط المستفيد بسبب وفاة اليتيم");</v>
       </c>
@@ -14761,16 +14835,16 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="6" t="s">
         <v>2284</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="6" t="s">
         <v>2285</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="6" t="s">
         <v>2286</v>
       </c>
-      <c r="D138" s="4" t="str">
+      <c r="D138" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC35","Invalid Orphan Marital Status Is Married","اسقاط المستفيد بسبب عدم توافق الحالة الاجتماعية لليتيم (متزوج)");</v>
       </c>
@@ -14779,16 +14853,16 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="6" t="s">
         <v>2288</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="6" t="s">
         <v>2289</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="6" t="s">
         <v>2291</v>
       </c>
-      <c r="D139" s="4" t="str">
+      <c r="D139" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC36","Invalid Orphan Is Employed","اسقاط المستفيد بسبب ان اليتيم على رأس العمل");</v>
       </c>
@@ -14797,16 +14871,16 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="6" t="s">
         <v>2294</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="6" t="s">
         <v>2292</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="6" t="s">
         <v>2296</v>
       </c>
-      <c r="D140" s="4" t="str">
+      <c r="D140" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC37","Invalid Orphan Age Check","اسقاط المستفيد بسبب عدم توافق عمر اليتيم مع الخدمة المقدمة");</v>
       </c>
@@ -14815,16 +14889,16 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="6" t="s">
         <v>2295</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="6" t="s">
         <v>2293</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="6" t="s">
         <v>2297</v>
       </c>
-      <c r="D141" s="4" t="str">
+      <c r="D141" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC38","Invalid Orphan Is Not Student","اسقاط المستفيد بسبب ان اليتيم ليس طالب");</v>
       </c>
@@ -14833,16 +14907,16 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="6" t="s">
         <v>2300</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="6" t="s">
         <v>2301</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="6" t="s">
         <v>2302</v>
       </c>
-      <c r="D142" s="4" t="str">
+      <c r="D142" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC39","Invalid Applicant Received Orphan End Of Custody Reward","اسقاط المستفيد بسبب انه تم استلام مكافأة نهاية حضانة لهذا اليتيم من قبل");</v>
       </c>
@@ -14851,16 +14925,16 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="6" t="s">
         <v>2304</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="6" t="s">
         <v>2307</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="6" t="s">
         <v>2305</v>
       </c>
-      <c r="D143" s="4" t="str">
+      <c r="D143" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC40","Invalid Orphan Didn't Receive Graduation Certificate","اسقاط المستفيد بسبب ان اليتيم غير حاصل على شهادة تخرج");</v>
       </c>
@@ -14869,16 +14943,16 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="6" t="s">
         <v>2308</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="6" t="s">
         <v>2309</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="6" t="s">
         <v>2310</v>
       </c>
-      <c r="D144" s="4" t="str">
+      <c r="D144" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC41","Invalid Applicant Custody Allowance Is Suspended","اسقاط المستفيد بسبب أعانة الحضانة متوقفة");</v>
       </c>
@@ -14887,16 +14961,16 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="6" t="s">
         <v>2312</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="6" t="s">
         <v>2313</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="6" t="s">
         <v>2314</v>
       </c>
-      <c r="D145" s="4" t="str">
+      <c r="D145" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC42","Invalid Applicant Didn't Receive Graduation Certificate","اسقاط المستفيد بسبب اليتيم غير حاصل على شهادة تخرج");</v>
       </c>
@@ -14905,16 +14979,16 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="6" t="s">
         <v>2360</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="6" t="s">
         <v>2361</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="6" t="s">
         <v>2362</v>
       </c>
-      <c r="D146" s="4" t="str">
+      <c r="D146" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SP1","Invalid Applicant Doesn't Exist in NIC","اسقاط المستفيد بسبب انه غير متواجد في بيانات ان اي سي ");</v>
       </c>
@@ -14923,16 +14997,16 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="6" t="s">
         <v>2365</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="6" t="s">
         <v>2366</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="6" t="s">
         <v>2367</v>
       </c>
-      <c r="D147" s="4" t="str">
+      <c r="D147" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SP2","Invalid Dependent Don't Exist In NIC","اسقاط التابع بسبب انه غير متواجد في بيانات ان اي سي ");</v>
       </c>
@@ -14941,16 +15015,16 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="6" t="s">
         <v>2368</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="6" t="s">
         <v>2369</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="6" t="s">
         <v>2370</v>
       </c>
-      <c r="D148" s="4" t="str">
+      <c r="D148" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SP3","Invalid Applicant Marital Status Declaration","اسقاط المستفيد بسبب عدم توافق الحالة الأجتماعية مع الحالة الحالية");</v>
       </c>
@@ -14959,16 +15033,16 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="6" t="s">
         <v>2372</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="6" t="s">
         <v>2373</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="6" t="s">
         <v>2374</v>
       </c>
-      <c r="D149" s="4" t="str">
+      <c r="D149" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC43","Invalid Applicant is Requesting a Duplicate Assistance Card","اسقاط المستفيد بسبب تكرار في الكروت المطلوبة");</v>
       </c>
@@ -14977,16 +15051,16 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="6" t="s">
         <v>2378</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="6" t="s">
         <v>2379</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="6" t="s">
         <v>2380</v>
       </c>
-      <c r="D150" s="4" t="str">
+      <c r="D150" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC44","Invalid Applicant is Requesting a Duplicate Medical Equipments","اسقاط المستفيد بسبب تكرار في الأجهزة المطلوبة");</v>
       </c>
@@ -14995,16 +15069,16 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="6" t="s">
         <v>2381</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="6" t="s">
         <v>2382</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="6" t="s">
         <v>2383</v>
       </c>
-      <c r="D151" s="4" t="str">
+      <c r="D151" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SC45","Invalid Applicant is Requesting a Duplicate Visa Fee Waiver","اسقاط المستفيد بسبب تكرار في العمالة المطلوبة");</v>
       </c>
@@ -15013,16 +15087,16 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="6" t="s">
         <v>2384</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="6" t="s">
         <v>2386</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="6" t="s">
         <v>2385</v>
       </c>
-      <c r="D152" s="4" t="str">
+      <c r="D152" s="6" t="str">
         <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-D99","Invalid Husband Is Deceased","اسقاط المستفيد بسبب وفاة  الزوج");</v>
       </c>
@@ -15031,16 +15105,16 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="6" t="s">
         <v>2388</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="6" t="s">
         <v>2389</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="6" t="s">
         <v>2390</v>
       </c>
-      <c r="D153" s="4" t="str">
+      <c r="D153" s="6" t="str">
         <f t="shared" ref="D153:D154" si="5">CONCATENATE("return new RejectionMessageDetails(""",C153,"""",",""",B153,"""",",""",E153,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-D98","Invalid Mother Is Deceased","اسقاط المستفيد بسبب وفاة  الأم");</v>
       </c>
@@ -15049,16 +15123,16 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="6" t="s">
         <v>2392</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="6" t="s">
         <v>2393</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="6" t="s">
         <v>2394</v>
       </c>
-      <c r="D154" s="4" t="str">
+      <c r="D154" s="6" t="str">
         <f t="shared" si="5"/>
         <v>return new RejectionMessageDetails("MSG-SP4","Invalid Applicant Military Status Declaration","اسقاط المستفيد بسبب عدم توافق الحالة العسكرية مع الحالة الحالية");</v>
       </c>
@@ -15067,16 +15141,16 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="6" t="s">
         <v>2396</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="6" t="s">
         <v>2399</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="6" t="s">
         <v>2397</v>
       </c>
-      <c r="D155" s="4" t="str">
+      <c r="D155" s="6" t="str">
         <f t="shared" ref="D155:D157" si="6">CONCATENATE("return new RejectionMessageDetails(""",C155,"""",",""",B155,"""",",""",E155,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-SP5","Invalid Applicant Dependents Declaration","اسقاط المستفيد بسبب عدم توافق تكوين الأسرة مع التكوين الحالي");</v>
       </c>
@@ -15085,16 +15159,16 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="6" t="s">
         <v>2400</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="6" t="s">
         <v>2401</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="6" t="s">
         <v>2402</v>
       </c>
-      <c r="D156" s="4" t="str">
+      <c r="D156" s="6" t="str">
         <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-AS2","Invalid Applicant Asset And Income Rule","اسقاط المستفيد بسبب عدم توافق الدخل و الأصول مع نوع الخدمة");</v>
       </c>
@@ -15103,100 +15177,100 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="6" t="s">
         <v>2404</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="6" t="s">
         <v>2423</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="6" t="s">
         <v>2405</v>
       </c>
-      <c r="D157" s="4" t="str">
+      <c r="D157" s="6" t="str">
         <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-ML1","Invalid Dependent Can't Be Added For This Sub-Segment","لا يمكن أضافة هذا التابع في هذه الحيثية");</v>
       </c>
-      <c r="E157" s="10" t="s">
+      <c r="E157" s="11" t="s">
         <v>2406</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="6" t="s">
         <v>2407</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="6" t="s">
         <v>2408</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="6" t="s">
         <v>2410</v>
       </c>
-      <c r="D158" s="4" t="str">
+      <c r="D158" s="6" t="str">
         <f t="shared" ref="D158" si="7">CONCATENATE("return new RejectionMessageDetails(""",C158,"""",",""",B158,"""",",""",E158,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-ML2","Invalid Father Can't Be Added For This Sub-Segment","لا يمكن أضافة الأب في هذه الحيثية");</v>
       </c>
-      <c r="E158" s="10" t="s">
+      <c r="E158" s="11" t="s">
         <v>2409</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="6" t="s">
         <v>2411</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="6" t="s">
         <v>2420</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="6" t="s">
         <v>2412</v>
       </c>
-      <c r="D159" s="4" t="str">
+      <c r="D159" s="6" t="str">
         <f t="shared" ref="D159" si="8">CONCATENATE("return new RejectionMessageDetails(""",C159,"""",",""",B159,"""",",""",E159,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-ML3","Invalid Mother Can't Be Added For This Sub-Segment","لا يمكن أضافة الأم في هذه الحيثية");</v>
       </c>
-      <c r="E159" s="10" t="s">
+      <c r="E159" s="11" t="s">
         <v>2417</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="6" t="s">
         <v>2413</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="6" t="s">
         <v>2421</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="6" t="s">
         <v>2415</v>
       </c>
-      <c r="D160" s="4" t="str">
+      <c r="D160" s="6" t="str">
         <f t="shared" ref="D160:D170" si="9">CONCATENATE("return new RejectionMessageDetails(""",C160,"""",",""",B160,"""",",""",E160,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-ML4","Invalid Husband Can't Be Added For This Sub-Segment","لا يمكن أضافة الزوج في هذه الحيثية");</v>
       </c>
-      <c r="E160" s="10" t="s">
+      <c r="E160" s="11" t="s">
         <v>2418</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="6" t="s">
         <v>2414</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="6" t="s">
         <v>2422</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="6" t="s">
         <v>2416</v>
       </c>
-      <c r="D161" s="4" t="str">
+      <c r="D161" s="6" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML5","Invalid Wife Can't Be Added For This Sub-Segment","لا يمكن أضافة الزوجة في هذه الحيثية");</v>
       </c>
-      <c r="E161" s="10" t="s">
+      <c r="E161" s="11" t="s">
         <v>2419</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>2424</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="10" t="s">
         <v>2425</v>
       </c>
       <c r="C162" s="6" t="s">
@@ -15206,51 +15280,51 @@
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML6","Invalid Applicant Is Beneficiary In this Service Before During His Medication Period","اسقاط المستفيد بسبب تم الأستفادة من الخدمة سابقا خلال مدة العجز المؤقت");</v>
       </c>
-      <c r="E162" s="13" t="s">
+      <c r="E162" s="12" t="s">
         <v>2427</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="6" t="s">
         <v>2428</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="6" t="s">
         <v>2429</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="6" t="s">
         <v>2430</v>
       </c>
-      <c r="D163" s="4" t="str">
+      <c r="D163" s="6" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML7","Invalid Applicant Doesn't Have Any Eligible Dependents","اسقاط المستفيد بسبب عدم وجود تابعين ");</v>
       </c>
-      <c r="E163" s="10" t="s">
+      <c r="E163" s="11" t="s">
         <v>2431</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="6" t="s">
         <v>2433</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="6" t="s">
         <v>2434</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="6" t="s">
         <v>2435</v>
       </c>
-      <c r="D164" s="4" t="str">
+      <c r="D164" s="6" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML8","Invalid Applicant Medication Period Doesn't Exceed One Year","اسقاط المستفيد بسبب مدة العجز المؤقت أقل من سنة");</v>
       </c>
-      <c r="E164" s="10" t="s">
+      <c r="E164" s="11" t="s">
         <v>2432</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>2436</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="10" t="s">
         <v>2437</v>
       </c>
       <c r="C165" s="6" t="s">
@@ -15260,39 +15334,39 @@
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML9","Invalid Applicant Didn't Pass The Eligible Duration Since The Last AdHoc Payment","اسقاط المستفيد بسبب عدم تجاوز المدة المقبولة");</v>
       </c>
-      <c r="E165" s="12" t="s">
+      <c r="E165" s="11" t="s">
         <v>2439</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="6" t="s">
         <v>2441</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="6" t="s">
         <v>2442</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="6" t="s">
         <v>2443</v>
       </c>
-      <c r="D166" s="4" t="str">
+      <c r="D166" s="6" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML10","Invalid Applicant Doesn't Have Stable Income","اسقاط المستفيد بسبب عدم وجود دخل ثابت");</v>
       </c>
-      <c r="E166" s="10" t="s">
+      <c r="E166" s="11" t="s">
         <v>2440</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="6" t="s">
         <v>2444</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="6" t="s">
         <v>2445</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="6" t="s">
         <v>2446</v>
       </c>
-      <c r="D167" s="4" t="str">
+      <c r="D167" s="6" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML11","Invalid Father Of The Applicant Is Not Deceased","اسقاط المستفيد بسبب عدم وفاة الأب ");</v>
       </c>
@@ -15301,16 +15375,16 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="6" t="s">
         <v>2447</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="6" t="s">
         <v>2448</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C168" s="6" t="s">
         <v>2449</v>
       </c>
-      <c r="D168" s="4" t="str">
+      <c r="D168" s="6" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML12","Invalid Applicant Number Of Dependents Exceeds The Limit","اسقاط المستفيد بسبب تجاوز حد التابعين المسموح");</v>
       </c>
@@ -15319,16 +15393,16 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="6" t="s">
         <v>2456</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="6" t="s">
         <v>2457</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="6" t="s">
         <v>2458</v>
       </c>
-      <c r="D169" s="4" t="str">
+      <c r="D169" s="6" t="str">
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-SC46","Invalid Foster Family Applicant Is Deceased","اسقاط المستفيد بسبب وفاة  الحاضن");</v>
       </c>
@@ -15336,7 +15410,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>2460</v>
       </c>
@@ -15350,11 +15424,11 @@
         <f t="shared" si="9"/>
         <v>return new RejectionMessageDetails("MSG-ML13","Invalid Applicant Is DSS Eligible And Applying For Exclusive Support","اسقاط المستفيد بسبب انه مسجل في برنامج معاش الضمان الأجتماعي و مقدم في المساعدة الغير مشمولة");</v>
       </c>
-      <c r="E170" s="13" t="s">
+      <c r="E170" s="12" t="s">
         <v>2468</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>2464</v>
       </c>
@@ -15368,21 +15442,21 @@
         <f t="shared" ref="D171:D180" si="10">CONCATENATE("return new RejectionMessageDetails(""",C171,"""",",""",B171,"""",",""",E171,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-ML14","Invalid Applicant Is Not DSS Eligible And Applying For Inclusive Support","اسقاط المستفيد بسبب انه غير مسجل في برنامج معاش الضمان الأجتماعي و مقدم في المساعدة مشمولة");</v>
       </c>
-      <c r="E171" s="13" t="s">
+      <c r="E171" s="12" t="s">
         <v>2467</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="6" t="s">
         <v>2469</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="6" t="s">
         <v>2470</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="6" t="s">
         <v>2471</v>
       </c>
-      <c r="D172" s="4" t="str">
+      <c r="D172" s="6" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-ML15","Invalid Applicant Exceeds The Eligible Number Of Home Workers","اسقاط المستفيد بسبب انه تجاوز الحد المسموح للعمالة المنزلية");</v>
       </c>
@@ -15391,16 +15465,16 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="6" t="s">
         <v>2490</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="6" t="s">
         <v>1588</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="6" t="s">
         <v>2479</v>
       </c>
-      <c r="D173" s="4" t="str">
+      <c r="D173" s="6" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF1","Invalid Applicant Is Beneficiary From a Conflicting Service","الالحاق في احدى الخدمات المتعارضة مع خدمة الاعانة المالية");</v>
       </c>
@@ -15409,16 +15483,16 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="6" t="s">
         <v>2491</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="6" t="s">
         <v>1583</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="6" t="s">
         <v>2481</v>
       </c>
-      <c r="D174" s="4" t="str">
+      <c r="D174" s="6" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF2","Invalid Applicant Disabilities Doesn't Fulfill the Service Applied For","الاعاقة أو المرض غير مصنف في برنامج الاعانة المالية");</v>
       </c>
@@ -15427,16 +15501,16 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="6" t="s">
         <v>2492</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="6" t="s">
         <v>2483</v>
       </c>
-      <c r="D175" s="4" t="str">
+      <c r="D175" s="6" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF3","Invalid Applicant Is Deceased","وفاة المستفيد");</v>
       </c>
@@ -15445,16 +15519,16 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="6" t="s">
         <v>2493</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="6" t="s">
         <v>2485</v>
       </c>
-      <c r="D176" s="4" t="str">
+      <c r="D176" s="6" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF4","Invalid Applicant Is Not Saudi And Doesn't Have A Transient Card"," الجنسية غير سعودي وغير حامل بطاقة تنقل");</v>
       </c>
@@ -15463,16 +15537,16 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="6" t="s">
         <v>2494</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="6" t="s">
         <v>1579</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="6" t="s">
         <v>2487</v>
       </c>
-      <c r="D177" s="4" t="str">
+      <c r="D177" s="6" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF5","Invalid Applicant is Not Handicapped","عدم وجود اعاقة مسجلة للمستفيد");</v>
       </c>
@@ -15481,16 +15555,16 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="6" t="s">
         <v>2495</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="6" t="s">
         <v>2488</v>
       </c>
-      <c r="D178" s="4" t="str">
+      <c r="D178" s="6" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF6","Invalid Applicant Residency in KSA Check","الإقامة خارج المملكة لمدة تزيد عن 90 يوم");</v>
       </c>
@@ -15499,111 +15573,237 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="6" t="s">
         <v>2497</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="6" t="s">
         <v>2498</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="6" t="s">
         <v>2499</v>
       </c>
-      <c r="D179" s="4" t="str">
+      <c r="D179" s="6" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-SCF7","Invalid Applicant Disability Class Is Not Defined","اسقاط المستفيد بسبب عدم وجود فئة استحقاق");</v>
       </c>
-      <c r="E179" s="10" t="s">
+      <c r="E179" s="11" t="s">
         <v>2500</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="6" t="s">
         <v>2501</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="6" t="s">
         <v>2502</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" s="6" t="s">
         <v>2503</v>
       </c>
-      <c r="D180" s="4" t="str">
+      <c r="D180" s="6" t="str">
         <f t="shared" si="10"/>
         <v>return new RejectionMessageDetails("MSG-DE15","Invalid Dependent Is Married Or Has Offsprings","اسقاط التابع بسبب أنه متزوج أو له أولاد");</v>
       </c>
-      <c r="E180" s="10" t="s">
+      <c r="E180" s="11" t="s">
         <v>2504</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="6" t="s">
         <v>2505</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="6" t="s">
         <v>2507</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="6" t="s">
         <v>2506</v>
       </c>
-      <c r="D181" s="4" t="str">
+      <c r="D181" s="6" t="str">
         <f t="shared" ref="D181" si="11">CONCATENATE("return new RejectionMessageDetails(""",C181,"""",",""",B181,"""",",""",E181,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-DE16","Invalid Dependent Is Not A Student","اسقاط التابع بسبب انه ليس طالب");</v>
       </c>
-      <c r="E181" s="10" t="s">
+      <c r="E181" s="11" t="s">
         <v>2508</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="6" t="s">
         <v>2509</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="6" t="s">
         <v>2510</v>
       </c>
-      <c r="D182" s="4" t="str">
-        <f t="shared" ref="D182:D184" si="12">CONCATENATE("return new RejectionMessageDetails(""",C182,"""",",""",B182,"""",",""",E182,""")",";")</f>
+      <c r="D182" s="6" t="str">
+        <f t="shared" ref="D182:D191" si="12">CONCATENATE("return new RejectionMessageDetails(""",C182,"""",",""",B182,"""",",""",E182,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-DE17","Invalid Dependent Age Check","اسقاط التابع بسبب عدم توافق العمر مع الضوابط ");</v>
       </c>
-      <c r="E182" s="10" t="s">
+      <c r="E182" s="11" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="6" t="s">
         <v>2511</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="6" t="s">
         <v>2512</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="6" t="s">
         <v>2513</v>
       </c>
-      <c r="D183" s="4" t="str">
+      <c r="D183" s="6" t="str">
         <f t="shared" si="12"/>
         <v>return new RejectionMessageDetails("MSG-DE18","Invalid Dependent Marital Status Check","اسقاط التابع بسبب عدم توافق الحالة الاجتماعية");</v>
       </c>
-      <c r="E183" s="10" t="s">
+      <c r="E183" s="11" t="s">
         <v>2514</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="6" t="s">
         <v>2515</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="6" t="s">
         <v>2517</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="6" t="s">
         <v>2516</v>
       </c>
-      <c r="D184" s="4" t="str">
+      <c r="D184" s="6" t="str">
         <f t="shared" si="12"/>
         <v>return new RejectionMessageDetails("MSG-CD3","Invalid Dependent is Blacklisted","اسقاط التابع بسبب ادراجه ضمن القائمة المحظورة ");</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>2518</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D185" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>return new RejectionMessageDetails("MSG-ME1","Invalid Applicant Is Deceased","عذرا، لا يمكنك تقديم طلب بسبب ان المستفيد متوفى");</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D186" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>return new RejectionMessageDetails("MSG-ME2","Invalid Applicant Is Not Saudi And Doesn't Have A Transient Card","عذرا، لا يمكنك تقديم طلب بسبب ان المستفيد غير سعودي وغير حامل لبطاقة تنقل");</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D187" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>return new RejectionMessageDetails("MSG-ME3","Invalid Applicant is Not Handicapped","عذرا، لا يمكنك تقديم طلب ويجب عمل تحديث لبيانات الاعاقة (اجراء تقييم اعاقة) للمستفيد");</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D188" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>return new RejectionMessageDetails("MSG-ME4","Invalid Applicant Is Beneficiary From a Conflicting Service","عذرا، لا يمكنك تقديم الطلب المستفيد ملحق في احد الخدمات الايوائية");</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D189" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>return new RejectionMessageDetails("MSG-ME5","Invalid Applicant Is Beneficiary From Equipped Car Service","عزرا، لا يمكنك تقديم الطلب بسبب الاستفادة من خدمة السيارة المجهزة و لم تنتهي المدة النظاميه");</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D190" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>return new RejectionMessageDetails("MSG-ME6","Invalid Applicant Can't Benefit in More Than One Special-Cases Equipment","عزرا، لا يمكنك الاستفادة من اكثر من جهاز واحد مواصفات خاصة");</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D191" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>return new RejectionMessageDetails("MSG-ME7","Invalid Applicant Exceeded The Number Of Medical Equipments In The Request","عزرا، تم تجاوز عدد الاجهزه الطبية في الطلب");</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>2542</v>
       </c>
     </row>
   </sheetData>

--- a/MLSD-BOM/resources/DynamicDomains.xlsx
+++ b/MLSD-BOM/resources/DynamicDomains.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="2543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="2551">
   <si>
     <t>Values</t>
   </si>
@@ -7662,6 +7662,30 @@
   </si>
   <si>
     <t>عزرا، تم تجاوز عدد الاجهزه الطبية في الطلب</t>
+  </si>
+  <si>
+    <t>MSGME8</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Disability Does Not Support This Service</t>
+  </si>
+  <si>
+    <t>MSG-ME8</t>
+  </si>
+  <si>
+    <t>عذرا، لا يمكنك تقديم طلب ويجب عمل تحديث لبيانات الاعاقة (لا يوجد اعاقة تتيح هذه الخدمة) للمستفيد</t>
+  </si>
+  <si>
+    <t>MSGME9</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Has Similar Equipments In The Request</t>
+  </si>
+  <si>
+    <t>MSG-ME9</t>
+  </si>
+  <si>
+    <t>عذرا، لا يمكنك تقديم الطلب بسبب تكرار احد الاجهزة في الطلب</t>
   </si>
 </sst>
 </file>
@@ -12353,10 +12377,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15802,8 +15826,44 @@
         <f t="shared" si="12"/>
         <v>return new RejectionMessageDetails("MSG-ME7","Invalid Applicant Exceeded The Number Of Medical Equipments In The Request","عزرا، تم تجاوز عدد الاجهزه الطبية في الطلب");</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E191" s="11" t="s">
         <v>2542</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>2545</v>
+      </c>
+      <c r="D192" s="6" t="str">
+        <f t="shared" ref="D192:D193" si="13">CONCATENATE("return new RejectionMessageDetails(""",C192,"""",",""",B192,"""",",""",E192,""")",";")</f>
+        <v>return new RejectionMessageDetails("MSG-ME8","Invalid Applicant Disability Does Not Support This Service","عذرا، لا يمكنك تقديم طلب ويجب عمل تحديث لبيانات الاعاقة (لا يوجد اعاقة تتيح هذه الخدمة) للمستفيد");</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D193" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>return new RejectionMessageDetails("MSG-ME9","Invalid Applicant Has Similar Equipments In The Request","عذرا، لا يمكنك تقديم الطلب بسبب تكرار احد الاجهزة في الطلب");</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>2550</v>
       </c>
     </row>
   </sheetData>

--- a/MLSD-BOM/resources/DynamicDomains.xlsx
+++ b/MLSD-BOM/resources/DynamicDomains.xlsx
@@ -29,11 +29,12 @@
     <sheet name="DisabilityCategory" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="2551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="2554">
   <si>
     <t>Values</t>
   </si>
@@ -4865,9 +4866,6 @@
     <t>MSG-SC10</t>
   </si>
   <si>
-    <t>اسقاط المستفيد بسبب الاقامة في المرافق الصحية على نفقة الدولة</t>
-  </si>
-  <si>
     <t>اسقاط المستفيد بسبب عدم توافق دخل عائل الاسرة مع الخدمة</t>
   </si>
   <si>
@@ -4970,9 +4968,6 @@
     <t>Invalid Requested Medical Equipment is Primary and The Applicant Has Reached The Limit</t>
   </si>
   <si>
-    <t>اسقاط المستفيد بسبب الجهاز المطلوب جهاز رئيسي و المستفيد وصل للحد الأقصى للاجهزه الرئيسية</t>
-  </si>
-  <si>
     <t>MSG-SC19</t>
   </si>
   <si>
@@ -4985,9 +4980,6 @@
     <t>MSG-SC20</t>
   </si>
   <si>
-    <t>اسقاط المستفيد بسبب الجهاز المطلوب متعارض مع اجهزة المستفيد</t>
-  </si>
-  <si>
     <t>اسقاط المستفيد بسبب نوع العمالة المنزلية المطلوبة مماثلة للعمالة الحالية</t>
   </si>
   <si>
@@ -5009,9 +5001,6 @@
     <t>MSG-SC22</t>
   </si>
   <si>
-    <t>اسقاط المستفيد بسبب السن لا يتناسب مع السن المطلوب للجهاز</t>
-  </si>
-  <si>
     <t>MSGSC23</t>
   </si>
   <si>
@@ -5021,9 +5010,6 @@
     <t>MSG-SC23</t>
   </si>
   <si>
-    <t>اسقاط المستفيد بسبب عدم توفر الاعاقة المستحقة للجهاز المطلوب</t>
-  </si>
-  <si>
     <t>MSGSC24</t>
   </si>
   <si>
@@ -5033,9 +5019,6 @@
     <t>MSG-SC24</t>
   </si>
   <si>
-    <t>اسقاط المستفيد بسبب توفر اعاقة غير مستحقة للجهاز المطلوب</t>
-  </si>
-  <si>
     <t>MSGSC25</t>
   </si>
   <si>
@@ -5045,9 +5028,6 @@
     <t>MSG-SC25</t>
   </si>
   <si>
-    <t>اسقاط المستفيد بسبب توفر جهاز متعارض مع الجهاز المطلوب</t>
-  </si>
-  <si>
     <t>A23</t>
   </si>
   <si>
@@ -7610,24 +7590,12 @@
     <t>MSG-ME3</t>
   </si>
   <si>
-    <t>عذرا، لا يمكنك تقديم طلب بسبب ان المستفيد غير سعودي وغير حامل لبطاقة تنقل</t>
-  </si>
-  <si>
-    <t>عذرا، لا يمكنك تقديم طلب بسبب ان المستفيد متوفى</t>
-  </si>
-  <si>
-    <t>عذرا، لا يمكنك تقديم طلب ويجب عمل تحديث لبيانات الاعاقة (اجراء تقييم اعاقة) للمستفيد</t>
-  </si>
-  <si>
     <t>MSGME4</t>
   </si>
   <si>
     <t>MSG-ME4</t>
   </si>
   <si>
-    <t>عذرا، لا يمكنك تقديم الطلب المستفيد ملحق في احد الخدمات الايوائية</t>
-  </si>
-  <si>
     <t>MSGME5</t>
   </si>
   <si>
@@ -7637,9 +7605,6 @@
     <t>MSG-ME5</t>
   </si>
   <si>
-    <t>عزرا، لا يمكنك تقديم الطلب بسبب الاستفادة من خدمة السيارة المجهزة و لم تنتهي المدة النظاميه</t>
-  </si>
-  <si>
     <t>MSGME6</t>
   </si>
   <si>
@@ -7649,9 +7614,6 @@
     <t>Invalid Applicant Can't Benefit in More Than One Special-Cases Equipment</t>
   </si>
   <si>
-    <t>عزرا، لا يمكنك الاستفادة من اكثر من جهاز واحد مواصفات خاصة</t>
-  </si>
-  <si>
     <t>MSGME7</t>
   </si>
   <si>
@@ -7661,9 +7623,6 @@
     <t>MSG-ME7</t>
   </si>
   <si>
-    <t>عزرا، تم تجاوز عدد الاجهزه الطبية في الطلب</t>
-  </si>
-  <si>
     <t>MSGME8</t>
   </si>
   <si>
@@ -7673,9 +7632,6 @@
     <t>MSG-ME8</t>
   </si>
   <si>
-    <t>عذرا، لا يمكنك تقديم طلب ويجب عمل تحديث لبيانات الاعاقة (لا يوجد اعاقة تتيح هذه الخدمة) للمستفيد</t>
-  </si>
-  <si>
     <t>MSGME9</t>
   </si>
   <si>
@@ -7685,7 +7641,61 @@
     <t>MSG-ME9</t>
   </si>
   <si>
-    <t>عذرا، لا يمكنك تقديم الطلب بسبب تكرار احد الاجهزة في الطلب</t>
+    <t>MSGME10</t>
+  </si>
+  <si>
+    <t>MSG-ME10</t>
+  </si>
+  <si>
+    <t>Invalid Applicant Doesn't Have Medical Equipment In The Request</t>
+  </si>
+  <si>
+    <t>المستفيد غير سعودي أوغير حامل لبطاقة تنقل أو ليس ابن لام سعودية</t>
+  </si>
+  <si>
+    <t>عدم وجود بيانات إعاقة للمستفيد.</t>
+  </si>
+  <si>
+    <t>الاعاقة أو المرض غير مصنف في برنامج إعانة الأجهزة الطبية</t>
+  </si>
+  <si>
+    <t>الإقامة بمرفق صحي أو تأهيلي على نفقة الدولة</t>
+  </si>
+  <si>
+    <t>عدم استيفاء شروط اهلية الاستحقاق بسبب: الحصول على احدى الخدمات المتعارضة مع خدمة اعانة الأجهزة الطبية</t>
+  </si>
+  <si>
+    <t>الحصول على سيارة مجهزة لذوي الإعاقة ولم تمضي المدة النظامية للاستحقاق.</t>
+  </si>
+  <si>
+    <t>الحصول مسبقاً على الاعانة لجهاز مواصفات خاصة ولم تمضي المدة النظامية للاستحقاق.</t>
+  </si>
+  <si>
+    <t>الحصول مسبقاً على الاعانة للعدد الأعلى من الأجهزة الطبية الأساسية ولم تمضي المدة النظامية للاستحقاق.</t>
+  </si>
+  <si>
+    <t>الحصول مسبقاً على اعانة لنفس نوع الجهاز المطلوب ولم تمضي المدة النظامية للاستحقاق.</t>
+  </si>
+  <si>
+    <t>عمر المستفيد غير داخل في نطاق العمر المحدد لاستحقاق الجهاز الطبي المطلوب.</t>
+  </si>
+  <si>
+    <t>الاعاقة أو المرض غير مصنف في استحقاق الجهاز الطبي.</t>
+  </si>
+  <si>
+    <t>وجود إعاقة أو مرض لدى المستفيد تمنع استحقاق الجهاز الطبي.</t>
+  </si>
+  <si>
+    <t>الحصول مسبقاً على اعانة لنفس نوع الجهاز الطبي المطلوب ولم تمضي المدة النظامية للاستحقاق.</t>
+  </si>
+  <si>
+    <t>الطلب مرفوض بسبب تجاوز العدد الاقصى من الاجهزه الطبية في الطلب الواحد.</t>
+  </si>
+  <si>
+    <t>الطلب مرفوض بسبب وجود تكرار لاحد الاجهزة في الطلب.</t>
+  </si>
+  <si>
+    <t>الطلب مرفوض بسبب عدم وجود اجهزه طبية في الطلب</t>
   </si>
 </sst>
 </file>
@@ -8700,10 +8710,10 @@
         <v>667</v>
       </c>
       <c r="B2" t="s">
-        <v>2337</v>
+        <v>2330</v>
       </c>
       <c r="C2" t="s">
-        <v>2336</v>
+        <v>2329</v>
       </c>
       <c r="D2" t="s">
         <v>654</v>
@@ -8714,10 +8724,10 @@
         <v>668</v>
       </c>
       <c r="B3" t="s">
-        <v>2339</v>
+        <v>2332</v>
       </c>
       <c r="C3" t="s">
-        <v>2338</v>
+        <v>2331</v>
       </c>
       <c r="D3" t="s">
         <v>655</v>
@@ -8728,10 +8738,10 @@
         <v>669</v>
       </c>
       <c r="B4" t="s">
-        <v>2341</v>
+        <v>2334</v>
       </c>
       <c r="C4" t="s">
-        <v>2340</v>
+        <v>2333</v>
       </c>
       <c r="D4" t="s">
         <v>656</v>
@@ -8742,10 +8752,10 @@
         <v>670</v>
       </c>
       <c r="B5" t="s">
-        <v>2343</v>
+        <v>2336</v>
       </c>
       <c r="C5" t="s">
-        <v>2342</v>
+        <v>2335</v>
       </c>
       <c r="D5" t="s">
         <v>657</v>
@@ -8756,10 +8766,10 @@
         <v>671</v>
       </c>
       <c r="B6" t="s">
-        <v>2345</v>
+        <v>2338</v>
       </c>
       <c r="C6" t="s">
-        <v>2344</v>
+        <v>2337</v>
       </c>
       <c r="D6" t="s">
         <v>658</v>
@@ -8770,10 +8780,10 @@
         <v>672</v>
       </c>
       <c r="B7" t="s">
-        <v>2347</v>
+        <v>2340</v>
       </c>
       <c r="C7" t="s">
-        <v>2346</v>
+        <v>2339</v>
       </c>
       <c r="D7" t="s">
         <v>659</v>
@@ -8784,10 +8794,10 @@
         <v>650</v>
       </c>
       <c r="B8" t="s">
-        <v>2349</v>
+        <v>2342</v>
       </c>
       <c r="C8" t="s">
-        <v>2348</v>
+        <v>2341</v>
       </c>
       <c r="D8" t="s">
         <v>660</v>
@@ -8798,10 +8808,10 @@
         <v>673</v>
       </c>
       <c r="B9" t="s">
-        <v>2351</v>
+        <v>2344</v>
       </c>
       <c r="C9" t="s">
-        <v>2350</v>
+        <v>2343</v>
       </c>
       <c r="D9" t="s">
         <v>661</v>
@@ -8812,10 +8822,10 @@
         <v>674</v>
       </c>
       <c r="B10" t="s">
-        <v>2353</v>
+        <v>2346</v>
       </c>
       <c r="C10" t="s">
-        <v>2352</v>
+        <v>2345</v>
       </c>
       <c r="D10" t="s">
         <v>662</v>
@@ -8826,10 +8836,10 @@
         <v>675</v>
       </c>
       <c r="B11" t="s">
-        <v>2355</v>
+        <v>2348</v>
       </c>
       <c r="C11" t="s">
-        <v>2354</v>
+        <v>2347</v>
       </c>
       <c r="D11" t="s">
         <v>663</v>
@@ -8840,10 +8850,10 @@
         <v>676</v>
       </c>
       <c r="B12" t="s">
-        <v>2357</v>
+        <v>2350</v>
       </c>
       <c r="C12" t="s">
-        <v>2356</v>
+        <v>2349</v>
       </c>
       <c r="D12" t="s">
         <v>664</v>
@@ -8854,10 +8864,10 @@
         <v>666</v>
       </c>
       <c r="B13" t="s">
-        <v>2359</v>
+        <v>2352</v>
       </c>
       <c r="C13" t="s">
-        <v>2358</v>
+        <v>2351</v>
       </c>
       <c r="D13" t="s">
         <v>665</v>
@@ -12377,10 +12387,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12388,7 +12398,7 @@
     <col min="1" max="1" width="19.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="45.42578125" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
@@ -12749,7 +12759,7 @@
         <v>return new RejectionMessageDetails("MSG-C4","Invalid Applicant Is Deceased","اسقاط المستفيد بسبب الوفاة");</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2463</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -12901,7 +12911,7 @@
         <v>279</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>2455</v>
+        <v>2448</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>280</v>
@@ -12911,25 +12921,25 @@
         <v>return new RejectionMessageDetails("MSG-D14","Invalid Dependent Private Business Check","اسقاط التابع بسبب وجود رخصة نشاط تجاري");</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2454</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>2451</v>
+        <v>2444</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>2452</v>
+        <v>2445</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>2453</v>
+        <v>2446</v>
       </c>
       <c r="D30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>return new RejectionMessageDetails("MSG-D15","Invalid Dependent Doesn't Exists In NIC","اسقاط التابع بسبب انه غير متواجد في بيانات ان اي سي ");</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>2364</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -14167,7 +14177,7 @@
         <v>357</v>
       </c>
       <c r="D99" s="6" t="str">
-        <f t="shared" ref="D99:D103" si="3">CONCATENATE("return new RejectionMessageDetails(""",C99,"""",",""",B99,"""",",""",E99,""")",";")</f>
+        <f>CONCATENATE("return new RejectionMessageDetails(""",C99,"""",",""",B99,"""",",""",E99,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-S2","Invalid Applicant Does Not Have A Disabling Disease","اسقاط المستفيد حامل بطاقة تنقل بسبب عدم توافق الخدمة مع الضوابط المحددة (سن الشيخوخة وليس لديه أمراض مسببة للإعاقة)");</v>
       </c>
       <c r="E99" s="5" t="s">
@@ -14203,7 +14213,7 @@
         <v>568</v>
       </c>
       <c r="D101" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("return new RejectionMessageDetails(""",C101,"""",",""",B101,"""",",""",E101,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-OS","Invalid Applicant Salary Above 3000","اسقاط المستفيد بسبب عدم توافق الخدمة مع الضوابط المحددة (يتيم مجهول الابوين)");</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -14221,7 +14231,7 @@
         <v>573</v>
       </c>
       <c r="D102" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("return new RejectionMessageDetails(""",C102,"""",",""",B102,"""",",""",E102,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-SD","Invalid Applicant Status Report Date Is Expired","اسقاط المستفيد بسبب انتهاء مدة تقرير الحالة ");</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -14239,7 +14249,7 @@
         <v>579</v>
       </c>
       <c r="D103" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("return new RejectionMessageDetails(""",C103,"""",",""",B103,"""",",""",E103,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-FO","Invalid Applicant Mother Does Not have Eligible Dependents","اسقاط المستفيد بسبب عدم وجود مستفيدين مع الأم");</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -14257,7 +14267,7 @@
         <v>1580</v>
       </c>
       <c r="D104" s="6" t="str">
-        <f t="shared" ref="D104:D152" si="4">CONCATENATE("return new RejectionMessageDetails(""",C104,"""",",""",B104,"""",",""",E104,""")",";")</f>
+        <f t="shared" ref="D104:D152" si="3">CONCATENATE("return new RejectionMessageDetails(""",C104,"""",",""",B104,"""",",""",E104,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-SC1","Invalid Applicant is Not Handicapped","اسقاط المستفيد بسبب انه غير معاق ");</v>
       </c>
       <c r="E104" s="5" t="s">
@@ -14275,7 +14285,7 @@
         <v>1582</v>
       </c>
       <c r="D105" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC2","Invalid Applicant Disabilities Doesn't Fulfill the Service Applied For","اسقاط المستفيد بسبب الاعاقة ليست في قائمة الاعاقات المستحقة");</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -14293,11 +14303,11 @@
         <v>1585</v>
       </c>
       <c r="D106" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC3","Invalid Applicant Exceeds the Residency Period in A Governmental Hospital","الإقامة بمرفق صحي أو تأهيلي على نفقة الدولة لأكثر من 6 شهور");</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>2475</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -14311,7 +14321,7 @@
         <v>1587</v>
       </c>
       <c r="D107" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC4","Invalid Applicant Is Beneficiary From a Conflicting Service","اسقاط المستفيد بسبب انه مستفيد من احد الخدمات المتعارضة مع هذه الخدمة ");</v>
       </c>
       <c r="E107" s="5" t="s">
@@ -14329,11 +14339,11 @@
         <v>1590</v>
       </c>
       <c r="D108" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC5","Invalid Applicant is Scholar","الابتعاث للدارسة على حساب الدولة داخل او خارج المملكة");</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>2476</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -14341,17 +14351,17 @@
         <v>1601</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>2496</v>
+        <v>2489</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>1592</v>
       </c>
       <c r="D109" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC6","Invalid Applicant Exceeds The Income Limit","مجموع دخل المستفيد الشهري أكثر من 4000 ريال");</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>2477</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -14365,11 +14375,11 @@
         <v>1593</v>
       </c>
       <c r="D110" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC7","Invalid Applicant Age at Disability","السن وقت حدوث الإعاقة أصغر من 2 أو أكبر من 45");</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>2473</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -14383,11 +14393,11 @@
         <v>1595</v>
       </c>
       <c r="D111" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC8","Invalid Applicant Disability Class With Assesment Evaluation","عدم تحديث البيانات وإعادة تقييم الإعاقه في الوقت المحدد حسب فئة الاعاقة");</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>2474</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -14401,7 +14411,7 @@
         <v>1606</v>
       </c>
       <c r="D112" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC9","Invalid Applicant Age is Not Compatible With The Applied Service","اسقاط المستفيد بسبب عدم توافق العمر مع نوع الخدمة");</v>
       </c>
       <c r="E112" s="5" t="s">
@@ -14419,979 +14429,979 @@
         <v>1609</v>
       </c>
       <c r="D113" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC10","Invalid Applicant Lives In Governmental Hospital","اسقاط المستفيد بسبب الاقامة في المرافق الصحية على نفقة الدولة");</v>
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC10","Invalid Applicant Lives In Governmental Hospital","الإقامة بمرفق صحي أو تأهيلي على نفقة الدولة");</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1610</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>1612</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>1613</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>1614</v>
-      </c>
       <c r="D114" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC11","Invalid Applicant Head Of House Hold Income","اسقاط المستفيد بسبب عدم توافق دخل عائل الاسرة مع الخدمة");</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>1615</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C115" s="6" t="s">
+      <c r="D115" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC12","Invalid Applicant is Beneficiary From a Car Lifter Equipment And Not Expired","اسقاط المستفيد بسبب انه مستفيد من جهاز رافعة السيارة و لم تنتهي المدة النظامية");</v>
+      </c>
+      <c r="E115" s="5" t="s">
         <v>1616</v>
-      </c>
-      <c r="D115" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC12","Invalid Applicant is Beneficiary From a Car Lifter Equipment And Not Expired","اسقاط المستفيد بسبب انه مستفيد من جهاز رافعة السيارة و لم تنتهي المدة النظامية");</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>1619</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="C116" s="6" t="s">
         <v>1620</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="D116" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC13","Invalid Applicant Period of Beneficiary From An Equipped Car","اسقاط المستفيد بسبب عدم توافق المدة المحددة للاستفادة من السيارة المجهزة");</v>
+      </c>
+      <c r="E116" s="5" t="s">
         <v>1621</v>
-      </c>
-      <c r="D116" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC13","Invalid Applicant Period of Beneficiary From An Equipped Car","اسقاط المستفيد بسبب عدم توافق المدة المحددة للاستفادة من السيارة المجهزة");</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>1623</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="C117" s="6" t="s">
         <v>1624</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="D117" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC14","Invalid Applicant Nationality Is Not An Arabian Country","اسقاط المستفيد بسبب الجنسية لبست من احد الدول العربية");</v>
+      </c>
+      <c r="E117" s="5" t="s">
         <v>1625</v>
-      </c>
-      <c r="D117" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC14","Invalid Applicant Nationality Is Not An Arabian Country","اسقاط المستفيد بسبب الجنسية لبست من احد الدول العربية");</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>1627</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="C118" s="6" t="s">
         <v>1628</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="D118" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC15","Invalid Applicant is Not Valid For Job Rehabilitation Service","اسقاط المستفيد بسبب انه غير صالح للتأهيل المهني");</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>1629</v>
-      </c>
-      <c r="D118" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC15","Invalid Applicant is Not Valid For Job Rehabilitation Service","اسقاط المستفيد بسبب انه غير صالح للتأهيل المهني");</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>1631</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="C119" s="6" t="s">
         <v>1632</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="D119" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC16","Invalid Applicant Disability Assesment Is Not Valid","اسقاط المستفيد بسبب انتهاء صلاحية اخر تقيم للاعاقة");</v>
+      </c>
+      <c r="E119" s="5" t="s">
         <v>1633</v>
-      </c>
-      <c r="D119" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC16","Invalid Applicant Disability Assesment Is Not Valid","اسقاط المستفيد بسبب انتهاء صلاحية اخر تقيم للاعاقة");</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>1635</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C120" s="6" t="s">
+      <c r="D120" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC17","Invalid Applicant Mental Disability","اسقاط المستفيد بسبب الاعاقة العقلية");</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>1636</v>
-      </c>
-      <c r="D120" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC17","Invalid Applicant Mental Disability","اسقاط المستفيد بسبب الاعاقة العقلية");</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>1639</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>1640</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="D121" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC18","Invalid Requested Medical Equipment is Available from Military Sectors","اسقاط المستفيد بسبب الجهاز المطلوب غير مستثناة من رعاية صحية من القطاعات العسكرية");</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>1641</v>
-      </c>
-      <c r="D121" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC18","Invalid Requested Medical Equipment is Available from Military Sectors","اسقاط المستفيد بسبب الجهاز المطلوب غير مستثناة من رعاية صحية من القطاعات العسكرية");</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>1643</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="C122" s="6" t="s">
         <v>1644</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="D122" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC19","Invalid Requested Medical Equipment is Primary and The Applicant Has Reached The Limit","الحصول مسبقاً على الاعانة للعدد الأعلى من الأجهزة الطبية الأساسية ولم تمضي المدة النظامية للاستحقاق.");</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>1646</v>
       </c>
-      <c r="D122" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC19","Invalid Requested Medical Equipment is Primary and The Applicant Has Reached The Limit","اسقاط المستفيد بسبب الجهاز المطلوب جهاز رئيسي و المستفيد وصل للحد الأقصى للاجهزه الرئيسية");</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>1647</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>1649</v>
-      </c>
       <c r="D123" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC20","Invalid Applicant Is Requesting a Conflicting Equipment","اسقاط المستفيد بسبب الجهاز المطلوب متعارض مع اجهزة المستفيد");</v>
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC20","Invalid Applicant Is Requesting a Conflicting Equipment","الحصول مسبقاً على اعانة لنفس نوع الجهاز المطلوب ولم تمضي المدة النظامية للاستحقاق.");</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>1650</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D124" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC21","Invalid Applicant Requested a Conflicting Home Worker","اسقاط المستفيد بسبب نوع العمالة المنزلية المطلوبة مماثلة للعمالة الحالية");</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
         <v>1652</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B125" s="6" t="s">
         <v>1653</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C125" s="6" t="s">
         <v>1654</v>
       </c>
-      <c r="D124" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC21","Invalid Applicant Requested a Conflicting Home Worker","اسقاط المستفيد بسبب نوع العمالة المنزلية المطلوبة مماثلة للعمالة الحالية");</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>1657</v>
-      </c>
       <c r="D125" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC22","Invalid Applicant Doesn't Meet The Required Age For the Requested Equipment","اسقاط المستفيد بسبب السن لا يتناسب مع السن المطلوب للجهاز");</v>
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC22","Invalid Applicant Doesn't Meet The Required Age For the Requested Equipment","عمر المستفيد غير داخل في نطاق العمر المحدد لاستحقاق الجهاز الطبي المطلوب.");</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>1658</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D126" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC23","Invalid Applicant Doesn't Meet the Eligible Disabilities Of the Requested Equipment","اسقاط المستفيد بسبب عدم توفر الاعاقة المستحقة للجهاز المطلوب");</v>
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC23","Invalid Applicant Doesn't Meet the Eligible Disabilities Of the Requested Equipment","الاعاقة أو المرض غير مصنف في استحقاق الجهاز الطبي.");</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>1662</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D127" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC24","Invalid Applicant Meets the InEligible Disabilities Of the Requested Equipment","وجود إعاقة أو مرض لدى المستفيد تمنع استحقاق الجهاز الطبي.");</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>1663</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D127" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC24","Invalid Applicant Meets the InEligible Disabilities Of the Requested Equipment","اسقاط المستفيد بسبب توفر اعاقة غير مستحقة للجهاز المطلوب");</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>1669</v>
-      </c>
       <c r="D128" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>return new RejectionMessageDetails("MSG-SC25","Invalid Applicant Have A Conflicting Equipment With The Requested One","اسقاط المستفيد بسبب توفر جهاز متعارض مع الجهاز المطلوب");</v>
+        <f t="shared" si="3"/>
+        <v>return new RejectionMessageDetails("MSG-SC25","Invalid Applicant Have A Conflicting Equipment With The Requested One","الحصول مسبقاً على اعانة لنفس نوع الجهاز الطبي المطلوب ولم تمضي المدة النظامية للاستحقاق.");</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1670</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="D129" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC26","Invalid Applicant Is Not Living In A Ministerial Facility","اسقاط المستفيد بسبب السكن ليس المؤسسات أو الدور الأجتماعية تابعة للوزارة");</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>1721</v>
+        <v>1714</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="D130" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC27","Invalid Applicant Father is Not Deceased And Not Unknown","اسقاط المستفيد بسبب حالة الأب غير متوفي و غير مجهول");</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D131" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC28","Invalid Applicant Gender And Marital Status Is Not Valid","اسقاط المستفيد بسبب عدم توافق النوع و الحالة الاجتماعية مع نوع الخدمة");</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="D132" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC29","Invalid Applicant Received Marriage Reward Before","اسقاط المستفيد بسبب أنه أستلم مكافئة زواج من قبل");</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="D133" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC30","Invalid Applicant Educational Level Is Other","اسقاط المستفيد بسبب عدم توافق المرحلة الدراسية مع نوع الخدمة");</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>1735</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1738</v>
+        <v>1731</v>
       </c>
       <c r="D134" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC31","Invalid Applicant Doesn't Live In Elderly Care","اسقاط المستفيد بسبب عدم تواجده في دار مسنين او مسنات");</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>1739</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>2273</v>
+        <v>2266</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
       <c r="D135" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC32","Invalid Applicant Number Of Offsprings Exceeds The Limit","اسقاط المستفيد بسبب تجاوز حد الابناء المسموح للأسرة");</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>2275</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>2276</v>
+        <v>2269</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>2277</v>
+        <v>2270</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>2278</v>
+        <v>2271</v>
       </c>
       <c r="D136" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC33","Invalid Applicant Is Not Beneficiary In Social Security","اسقاط التابع بسبب أنه غير مسجل في برنامج معاش الضمان الأجتماعي");</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>2279</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>2280</v>
+        <v>2273</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>2281</v>
+        <v>2274</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
       <c r="D137" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC34","Invalid Orphan Is Deceased","اسقاط المستفيد بسبب وفاة اليتيم");</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>2282</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>2284</v>
+        <v>2277</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>2285</v>
+        <v>2278</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>2286</v>
+        <v>2279</v>
       </c>
       <c r="D138" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC35","Invalid Orphan Marital Status Is Married","اسقاط المستفيد بسبب عدم توافق الحالة الاجتماعية لليتيم (متزوج)");</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>2287</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>2288</v>
+        <v>2281</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>2289</v>
+        <v>2282</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>2291</v>
+        <v>2284</v>
       </c>
       <c r="D139" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC36","Invalid Orphan Is Employed","اسقاط المستفيد بسبب ان اليتيم على رأس العمل");</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>2290</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>2294</v>
+        <v>2287</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>2292</v>
+        <v>2285</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>2296</v>
+        <v>2289</v>
       </c>
       <c r="D140" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC37","Invalid Orphan Age Check","اسقاط المستفيد بسبب عدم توافق عمر اليتيم مع الخدمة المقدمة");</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>2298</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>2295</v>
+        <v>2288</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>2293</v>
+        <v>2286</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>2297</v>
+        <v>2290</v>
       </c>
       <c r="D141" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC38","Invalid Orphan Is Not Student","اسقاط المستفيد بسبب ان اليتيم ليس طالب");</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>2299</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>2300</v>
+        <v>2293</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>2301</v>
+        <v>2294</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>2302</v>
+        <v>2295</v>
       </c>
       <c r="D142" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC39","Invalid Applicant Received Orphan End Of Custody Reward","اسقاط المستفيد بسبب انه تم استلام مكافأة نهاية حضانة لهذا اليتيم من قبل");</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>2303</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>2304</v>
+        <v>2297</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>2307</v>
+        <v>2300</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>2305</v>
+        <v>2298</v>
       </c>
       <c r="D143" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC40","Invalid Orphan Didn't Receive Graduation Certificate","اسقاط المستفيد بسبب ان اليتيم غير حاصل على شهادة تخرج");</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>2306</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>2308</v>
+        <v>2301</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>2309</v>
+        <v>2302</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>2310</v>
+        <v>2303</v>
       </c>
       <c r="D144" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC41","Invalid Applicant Custody Allowance Is Suspended","اسقاط المستفيد بسبب أعانة الحضانة متوقفة");</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>2311</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>2312</v>
+        <v>2305</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>2313</v>
+        <v>2306</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>2314</v>
+        <v>2307</v>
       </c>
       <c r="D145" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC42","Invalid Applicant Didn't Receive Graduation Certificate","اسقاط المستفيد بسبب اليتيم غير حاصل على شهادة تخرج");</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>2315</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>2360</v>
+        <v>2353</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>2361</v>
+        <v>2354</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="D146" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SP1","Invalid Applicant Doesn't Exist in NIC","اسقاط المستفيد بسبب انه غير متواجد في بيانات ان اي سي ");</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>2363</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>2365</v>
+        <v>2358</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>2366</v>
+        <v>2359</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>2367</v>
+        <v>2360</v>
       </c>
       <c r="D147" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SP2","Invalid Dependent Don't Exist In NIC","اسقاط التابع بسبب انه غير متواجد في بيانات ان اي سي ");</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>2364</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>2368</v>
+        <v>2361</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>2369</v>
+        <v>2362</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>2370</v>
+        <v>2363</v>
       </c>
       <c r="D148" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SP3","Invalid Applicant Marital Status Declaration","اسقاط المستفيد بسبب عدم توافق الحالة الأجتماعية مع الحالة الحالية");</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>2371</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>2372</v>
+        <v>2365</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>2373</v>
+        <v>2366</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>2374</v>
+        <v>2367</v>
       </c>
       <c r="D149" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC43","Invalid Applicant is Requesting a Duplicate Assistance Card","اسقاط المستفيد بسبب تكرار في الكروت المطلوبة");</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>2375</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>2378</v>
+        <v>2371</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>2379</v>
+        <v>2372</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>2380</v>
+        <v>2373</v>
       </c>
       <c r="D150" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC44","Invalid Applicant is Requesting a Duplicate Medical Equipments","اسقاط المستفيد بسبب تكرار في الأجهزة المطلوبة");</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>2376</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>2381</v>
+        <v>2374</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>2382</v>
+        <v>2375</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>2383</v>
+        <v>2376</v>
       </c>
       <c r="D151" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-SC45","Invalid Applicant is Requesting a Duplicate Visa Fee Waiver","اسقاط المستفيد بسبب تكرار في العمالة المطلوبة");</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>2377</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>2384</v>
+        <v>2377</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>2386</v>
+        <v>2379</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>2385</v>
+        <v>2378</v>
       </c>
       <c r="D152" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>return new RejectionMessageDetails("MSG-D99","Invalid Husband Is Deceased","اسقاط المستفيد بسبب وفاة  الزوج");</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>2387</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>2388</v>
+        <v>2381</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>2389</v>
+        <v>2382</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>2390</v>
+        <v>2383</v>
       </c>
       <c r="D153" s="6" t="str">
-        <f t="shared" ref="D153:D154" si="5">CONCATENATE("return new RejectionMessageDetails(""",C153,"""",",""",B153,"""",",""",E153,""")",";")</f>
+        <f t="shared" ref="D153:D159" si="4">CONCATENATE("return new RejectionMessageDetails(""",C153,"""",",""",B153,"""",",""",E153,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-D98","Invalid Mother Is Deceased","اسقاط المستفيد بسبب وفاة  الأم");</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>2391</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>2392</v>
+        <v>2385</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>2393</v>
+        <v>2386</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>2394</v>
+        <v>2387</v>
       </c>
       <c r="D154" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SP4","Invalid Applicant Military Status Declaration","اسقاط المستفيد بسبب عدم توافق الحالة العسكرية مع الحالة الحالية");</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>2395</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>2396</v>
+        <v>2389</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>2399</v>
+        <v>2392</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>2397</v>
+        <v>2390</v>
       </c>
       <c r="D155" s="6" t="str">
-        <f t="shared" ref="D155:D157" si="6">CONCATENATE("return new RejectionMessageDetails(""",C155,"""",",""",B155,"""",",""",E155,""")",";")</f>
+        <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-SP5","Invalid Applicant Dependents Declaration","اسقاط المستفيد بسبب عدم توافق تكوين الأسرة مع التكوين الحالي");</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>2398</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>2400</v>
+        <v>2393</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>2401</v>
+        <v>2394</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>2402</v>
+        <v>2395</v>
       </c>
       <c r="D156" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-AS2","Invalid Applicant Asset And Income Rule","اسقاط المستفيد بسبب عدم توافق الدخل و الأصول مع نوع الخدمة");</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>2403</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>2404</v>
+        <v>2397</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>2423</v>
+        <v>2416</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>2405</v>
+        <v>2398</v>
       </c>
       <c r="D157" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-ML1","Invalid Dependent Can't Be Added For This Sub-Segment","لا يمكن أضافة هذا التابع في هذه الحيثية");</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>2406</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>2407</v>
+        <v>2400</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>2408</v>
+        <v>2401</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>2410</v>
+        <v>2403</v>
       </c>
       <c r="D158" s="6" t="str">
-        <f t="shared" ref="D158" si="7">CONCATENATE("return new RejectionMessageDetails(""",C158,"""",",""",B158,"""",",""",E158,""")",";")</f>
+        <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-ML2","Invalid Father Can't Be Added For This Sub-Segment","لا يمكن أضافة الأب في هذه الحيثية");</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>2409</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>2411</v>
+        <v>2404</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>2420</v>
+        <v>2413</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>2412</v>
+        <v>2405</v>
       </c>
       <c r="D159" s="6" t="str">
-        <f t="shared" ref="D159" si="8">CONCATENATE("return new RejectionMessageDetails(""",C159,"""",",""",B159,"""",",""",E159,""")",";")</f>
+        <f t="shared" si="4"/>
         <v>return new RejectionMessageDetails("MSG-ML3","Invalid Mother Can't Be Added For This Sub-Segment","لا يمكن أضافة الأم في هذه الحيثية");</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>2417</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>2413</v>
+        <v>2406</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>2421</v>
+        <v>2414</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>2415</v>
+        <v>2408</v>
       </c>
       <c r="D160" s="6" t="str">
-        <f t="shared" ref="D160:D170" si="9">CONCATENATE("return new RejectionMessageDetails(""",C160,"""",",""",B160,"""",",""",E160,""")",";")</f>
+        <f t="shared" ref="D160:D170" si="5">CONCATENATE("return new RejectionMessageDetails(""",C160,"""",",""",B160,"""",",""",E160,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-ML4","Invalid Husband Can't Be Added For This Sub-Segment","لا يمكن أضافة الزوج في هذه الحيثية");</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>2418</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>2414</v>
+        <v>2407</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>2422</v>
+        <v>2415</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>2416</v>
+        <v>2409</v>
       </c>
       <c r="D161" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>return new RejectionMessageDetails("MSG-ML5","Invalid Wife Can't Be Added For This Sub-Segment","لا يمكن أضافة الزوجة في هذه الحيثية");</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>2419</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>2424</v>
+        <v>2417</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>2425</v>
+        <v>2418</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>2426</v>
+        <v>2419</v>
       </c>
       <c r="D162" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>return new RejectionMessageDetails("MSG-ML6","Invalid Applicant Is Beneficiary In this Service Before During His Medication Period","اسقاط المستفيد بسبب تم الأستفادة من الخدمة سابقا خلال مدة العجز المؤقت");</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>2427</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>2428</v>
+        <v>2421</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>2429</v>
+        <v>2422</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>2430</v>
+        <v>2423</v>
       </c>
       <c r="D163" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>return new RejectionMessageDetails("MSG-ML7","Invalid Applicant Doesn't Have Any Eligible Dependents","اسقاط المستفيد بسبب عدم وجود تابعين ");</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>2431</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>2433</v>
+        <v>2426</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>2434</v>
+        <v>2427</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>2435</v>
+        <v>2428</v>
       </c>
       <c r="D164" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>return new RejectionMessageDetails("MSG-ML8","Invalid Applicant Medication Period Doesn't Exceed One Year","اسقاط المستفيد بسبب مدة العجز المؤقت أقل من سنة");</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>2432</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>2436</v>
+        <v>2429</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>2437</v>
+        <v>2430</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>2438</v>
+        <v>2431</v>
       </c>
       <c r="D165" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>return new RejectionMessageDetails("MSG-ML9","Invalid Applicant Didn't Pass The Eligible Duration Since The Last AdHoc Payment","اسقاط المستفيد بسبب عدم تجاوز المدة المقبولة");</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>2439</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>2441</v>
+        <v>2434</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>2442</v>
+        <v>2435</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>2443</v>
+        <v>2436</v>
       </c>
       <c r="D166" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>return new RejectionMessageDetails("MSG-ML10","Invalid Applicant Doesn't Have Stable Income","اسقاط المستفيد بسبب عدم وجود دخل ثابت");</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>2444</v>
+        <v>2437</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>2445</v>
+        <v>2438</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>2446</v>
+        <v>2439</v>
       </c>
       <c r="D167" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>return new RejectionMessageDetails("MSG-ML11","Invalid Father Of The Applicant Is Not Deceased","اسقاط المستفيد بسبب عدم وفاة الأب ");</v>
       </c>
       <c r="E167" s="5" t="s">
@@ -15400,268 +15410,268 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>2447</v>
+        <v>2440</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>2448</v>
+        <v>2441</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>2449</v>
+        <v>2442</v>
       </c>
       <c r="D168" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>return new RejectionMessageDetails("MSG-ML12","Invalid Applicant Number Of Dependents Exceeds The Limit","اسقاط المستفيد بسبب تجاوز حد التابعين المسموح");</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>2450</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>2456</v>
+        <v>2449</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>2457</v>
+        <v>2450</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>2458</v>
+        <v>2451</v>
       </c>
       <c r="D169" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>return new RejectionMessageDetails("MSG-SC46","Invalid Foster Family Applicant Is Deceased","اسقاط المستفيد بسبب وفاة  الحاضن");</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>2459</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>2460</v>
+        <v>2453</v>
       </c>
       <c r="B170" s="6" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D170" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>return new RejectionMessageDetails("MSG-ML13","Invalid Applicant Is DSS Eligible And Applying For Exclusive Support","اسقاط المستفيد بسبب انه مسجل في برنامج معاش الضمان الأجتماعي و مقدم في المساعدة الغير مشمولة");</v>
+      </c>
+      <c r="E170" s="12" t="s">
         <v>2461</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>2462</v>
-      </c>
-      <c r="D170" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>return new RejectionMessageDetails("MSG-ML13","Invalid Applicant Is DSS Eligible And Applying For Exclusive Support","اسقاط المستفيد بسبب انه مسجل في برنامج معاش الضمان الأجتماعي و مقدم في المساعدة الغير مشمولة");</v>
-      </c>
-      <c r="E170" s="12" t="s">
-        <v>2468</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>2464</v>
+        <v>2457</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>2466</v>
+        <v>2459</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>2465</v>
+        <v>2458</v>
       </c>
       <c r="D171" s="6" t="str">
-        <f t="shared" ref="D171:D180" si="10">CONCATENATE("return new RejectionMessageDetails(""",C171,"""",",""",B171,"""",",""",E171,""")",";")</f>
+        <f t="shared" ref="D171:D180" si="6">CONCATENATE("return new RejectionMessageDetails(""",C171,"""",",""",B171,"""",",""",E171,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-ML14","Invalid Applicant Is Not DSS Eligible And Applying For Inclusive Support","اسقاط المستفيد بسبب انه غير مسجل في برنامج معاش الضمان الأجتماعي و مقدم في المساعدة مشمولة");</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>2467</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>2469</v>
+        <v>2462</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>2470</v>
+        <v>2463</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>2471</v>
+        <v>2464</v>
       </c>
       <c r="D172" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-ML15","Invalid Applicant Exceeds The Eligible Number Of Home Workers","اسقاط المستفيد بسبب انه تجاوز الحد المسموح للعمالة المنزلية");</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>2472</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>2490</v>
+        <v>2483</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>1588</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>2479</v>
+        <v>2472</v>
       </c>
       <c r="D173" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-SCF1","Invalid Applicant Is Beneficiary From a Conflicting Service","الالحاق في احدى الخدمات المتعارضة مع خدمة الاعانة المالية");</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>2480</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>2491</v>
+        <v>2484</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>1583</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="D174" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-SCF2","Invalid Applicant Disabilities Doesn't Fulfill the Service Applied For","الاعاقة أو المرض غير مصنف في برنامج الاعانة المالية");</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>2482</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>2492</v>
+        <v>2485</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>474</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>2483</v>
+        <v>2476</v>
       </c>
       <c r="D175" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-SCF3","Invalid Applicant Is Deceased","وفاة المستفيد");</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>2484</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>2493</v>
+        <v>2486</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>475</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>2485</v>
+        <v>2478</v>
       </c>
       <c r="D176" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-SCF4","Invalid Applicant Is Not Saudi And Doesn't Have A Transient Card"," الجنسية غير سعودي وغير حامل بطاقة تنقل");</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>2486</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>2494</v>
+        <v>2487</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>1579</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>2487</v>
+        <v>2480</v>
       </c>
       <c r="D177" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-SCF5","Invalid Applicant is Not Handicapped","عدم وجود اعاقة مسجلة للمستفيد");</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>2478</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>2495</v>
+        <v>2488</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>480</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>2488</v>
+        <v>2481</v>
       </c>
       <c r="D178" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-SCF6","Invalid Applicant Residency in KSA Check","الإقامة خارج المملكة لمدة تزيد عن 90 يوم");</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>2489</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>2497</v>
+        <v>2490</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>2498</v>
+        <v>2491</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>2499</v>
+        <v>2492</v>
       </c>
       <c r="D179" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-SCF7","Invalid Applicant Disability Class Is Not Defined","اسقاط المستفيد بسبب عدم وجود فئة استحقاق");</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>2500</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>2501</v>
+        <v>2494</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>2502</v>
+        <v>2495</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>2503</v>
+        <v>2496</v>
       </c>
       <c r="D180" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>return new RejectionMessageDetails("MSG-DE15","Invalid Dependent Is Married Or Has Offsprings","اسقاط التابع بسبب أنه متزوج أو له أولاد");</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>2504</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>2505</v>
+        <v>2498</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>2507</v>
+        <v>2500</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>2506</v>
+        <v>2499</v>
       </c>
       <c r="D181" s="6" t="str">
-        <f t="shared" ref="D181" si="11">CONCATENATE("return new RejectionMessageDetails(""",C181,"""",",""",B181,"""",",""",E181,""")",";")</f>
+        <f>CONCATENATE("return new RejectionMessageDetails(""",C181,"""",",""",B181,"""",",""",E181,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-DE16","Invalid Dependent Is Not A Student","اسقاط التابع بسبب انه ليس طالب");</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>2508</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>2509</v>
+        <v>2502</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>510</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>2510</v>
+        <v>2503</v>
       </c>
       <c r="D182" s="6" t="str">
-        <f t="shared" ref="D182:D191" si="12">CONCATENATE("return new RejectionMessageDetails(""",C182,"""",",""",B182,"""",",""",E182,""")",";")</f>
+        <f t="shared" ref="D182:D191" si="7">CONCATENATE("return new RejectionMessageDetails(""",C182,"""",",""",B182,"""",",""",E182,""")",";")</f>
         <v>return new RejectionMessageDetails("MSG-DE17","Invalid Dependent Age Check","اسقاط التابع بسبب عدم توافق العمر مع الضوابط ");</v>
       </c>
       <c r="E182" s="11" t="s">
@@ -15670,200 +15680,218 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>2511</v>
+        <v>2504</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>2512</v>
+        <v>2505</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>2513</v>
+        <v>2506</v>
       </c>
       <c r="D183" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>return new RejectionMessageDetails("MSG-DE18","Invalid Dependent Marital Status Check","اسقاط التابع بسبب عدم توافق الحالة الاجتماعية");</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>2514</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>2515</v>
+        <v>2508</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>2517</v>
+        <v>2510</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>2516</v>
+        <v>2509</v>
       </c>
       <c r="D184" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>return new RejectionMessageDetails("MSG-CD3","Invalid Dependent is Blacklisted","اسقاط التابع بسبب ادراجه ضمن القائمة المحظورة ");</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>2518</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>2519</v>
+        <v>2512</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>474</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>2520</v>
+        <v>2513</v>
       </c>
       <c r="D185" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>return new RejectionMessageDetails("MSG-ME1","Invalid Applicant Is Deceased","عذرا، لا يمكنك تقديم طلب بسبب ان المستفيد متوفى");</v>
+        <f t="shared" si="7"/>
+        <v>return new RejectionMessageDetails("MSG-ME1","Invalid Applicant Is Deceased","وفاة المستفيد");</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>2526</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>2522</v>
+        <v>2515</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>475</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>2521</v>
+        <v>2514</v>
       </c>
       <c r="D186" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>return new RejectionMessageDetails("MSG-ME2","Invalid Applicant Is Not Saudi And Doesn't Have A Transient Card","عذرا، لا يمكنك تقديم طلب بسبب ان المستفيد غير سعودي وغير حامل لبطاقة تنقل");</v>
+        <f t="shared" si="7"/>
+        <v>return new RejectionMessageDetails("MSG-ME2","Invalid Applicant Is Not Saudi And Doesn't Have A Transient Card","المستفيد غير سعودي أوغير حامل لبطاقة تنقل أو ليس ابن لام سعودية");</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>2523</v>
+        <v>2516</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>1579</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>2524</v>
+        <v>2517</v>
       </c>
       <c r="D187" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>return new RejectionMessageDetails("MSG-ME3","Invalid Applicant is Not Handicapped","عذرا، لا يمكنك تقديم طلب ويجب عمل تحديث لبيانات الاعاقة (اجراء تقييم اعاقة) للمستفيد");</v>
+        <f t="shared" si="7"/>
+        <v>return new RejectionMessageDetails("MSG-ME3","Invalid Applicant is Not Handicapped","عدم وجود بيانات إعاقة للمستفيد.");</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>2527</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>2528</v>
+        <v>2518</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>1588</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>2529</v>
+        <v>2519</v>
       </c>
       <c r="D188" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>return new RejectionMessageDetails("MSG-ME4","Invalid Applicant Is Beneficiary From a Conflicting Service","عذرا، لا يمكنك تقديم الطلب المستفيد ملحق في احد الخدمات الايوائية");</v>
+        <f t="shared" si="7"/>
+        <v>return new RejectionMessageDetails("MSG-ME4","Invalid Applicant Is Beneficiary From a Conflicting Service","عدم استيفاء شروط اهلية الاستحقاق بسبب: الحصول على احدى الخدمات المتعارضة مع خدمة اعانة الأجهزة الطبية");</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>2530</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>2531</v>
+        <v>2520</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>2532</v>
+        <v>2521</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>2533</v>
+        <v>2522</v>
       </c>
       <c r="D189" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>return new RejectionMessageDetails("MSG-ME5","Invalid Applicant Is Beneficiary From Equipped Car Service","عزرا، لا يمكنك تقديم الطلب بسبب الاستفادة من خدمة السيارة المجهزة و لم تنتهي المدة النظاميه");</v>
+        <f t="shared" si="7"/>
+        <v>return new RejectionMessageDetails("MSG-ME5","Invalid Applicant Is Beneficiary From Equipped Car Service","الحصول على سيارة مجهزة لذوي الإعاقة ولم تمضي المدة النظامية للاستحقاق.");</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>2534</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>2535</v>
+        <v>2523</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>2537</v>
+        <v>2525</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>2536</v>
+        <v>2524</v>
       </c>
       <c r="D190" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>return new RejectionMessageDetails("MSG-ME6","Invalid Applicant Can't Benefit in More Than One Special-Cases Equipment","عزرا، لا يمكنك الاستفادة من اكثر من جهاز واحد مواصفات خاصة");</v>
+        <f t="shared" si="7"/>
+        <v>return new RejectionMessageDetails("MSG-ME6","Invalid Applicant Can't Benefit in More Than One Special-Cases Equipment","الحصول مسبقاً على الاعانة لجهاز مواصفات خاصة ولم تمضي المدة النظامية للاستحقاق.");</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>2538</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>2539</v>
+        <v>2526</v>
       </c>
       <c r="B191" s="10" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D191" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>return new RejectionMessageDetails("MSG-ME7","Invalid Applicant Exceeded The Number Of Medical Equipments In The Request","الطلب مرفوض بسبب تجاوز العدد الاقصى من الاجهزه الطبية في الطلب الواحد.");</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D192" s="6" t="str">
+        <f>CONCATENATE("return new RejectionMessageDetails(""",C192,"""",",""",B192,"""",",""",E192,""")",";")</f>
+        <v>return new RejectionMessageDetails("MSG-ME8","Invalid Applicant Disability Does Not Support This Service","الاعاقة أو المرض غير مصنف في برنامج إعانة الأجهزة الطبية");</v>
+      </c>
+      <c r="E192" s="12" t="s">
         <v>2540</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>2541</v>
-      </c>
-      <c r="D191" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>return new RejectionMessageDetails("MSG-ME7","Invalid Applicant Exceeded The Number Of Medical Equipments In The Request","عزرا، تم تجاوز عدد الاجهزه الطبية في الطلب");</v>
-      </c>
-      <c r="E191" s="11" t="s">
-        <v>2542</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
-        <v>2543</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>2544</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>2545</v>
-      </c>
-      <c r="D192" s="6" t="str">
-        <f t="shared" ref="D192:D193" si="13">CONCATENATE("return new RejectionMessageDetails(""",C192,"""",",""",B192,"""",",""",E192,""")",";")</f>
-        <v>return new RejectionMessageDetails("MSG-ME8","Invalid Applicant Disability Does Not Support This Service","عذرا، لا يمكنك تقديم طلب ويجب عمل تحديث لبيانات الاعاقة (لا يوجد اعاقة تتيح هذه الخدمة) للمستفيد");</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>2546</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>2547</v>
+        <v>2532</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>2548</v>
+        <v>2533</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>2549</v>
+        <v>2534</v>
       </c>
       <c r="D193" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>return new RejectionMessageDetails("MSG-ME9","Invalid Applicant Has Similar Equipments In The Request","عذرا، لا يمكنك تقديم الطلب بسبب تكرار احد الاجهزة في الطلب");</v>
+        <f>CONCATENATE("return new RejectionMessageDetails(""",C193,"""",",""",B193,"""",",""",E193,""")",";")</f>
+        <v>return new RejectionMessageDetails("MSG-ME9","Invalid Applicant Has Similar Equipments In The Request","الطلب مرفوض بسبب وجود تكرار لاحد الاجهزة في الطلب.");</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>2550</v>
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D194" s="6" t="str">
+        <f>CONCATENATE("return new RejectionMessageDetails(""",C194,"""",",""",B194,"""",",""",E194,""")",";")</f>
+        <v>return new RejectionMessageDetails("MSG-ME10","Invalid Applicant Doesn't Have Medical Equipment In The Request","الطلب مرفوض بسبب عدم وجود اجهزه طبية في الطلب");</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>2553</v>
       </c>
     </row>
   </sheetData>
@@ -15904,57 +15932,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1712</v>
+        <v>1705</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>1700</v>
+        <v>1693</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1700</v>
+        <v>1693</v>
       </c>
     </row>
   </sheetData>
@@ -15995,181 +16023,181 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1701</v>
+        <v>1694</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1705</v>
+        <v>1698</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1706</v>
+        <v>1699</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1712</v>
+        <v>1705</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
     </row>
   </sheetData>
@@ -16220,7 +16248,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>1740</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -16234,7 +16262,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>1741</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -16248,7 +16276,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>1742</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -16262,7 +16290,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>1743</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -16276,7 +16304,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -16290,7 +16318,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -16304,7 +16332,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -16318,7 +16346,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -16332,7 +16360,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -16346,7 +16374,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>1749</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -16360,7 +16388,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>1750</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -16374,7 +16402,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>1751</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -16388,7 +16416,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>1752</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -16402,7 +16430,7 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -16416,7 +16444,7 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -16430,7 +16458,7 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -16444,7 +16472,7 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -16458,7 +16486,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>1757</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -16472,7 +16500,7 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -16486,7 +16514,7 @@
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>1770</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -16500,7 +16528,7 @@
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>1772</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -16514,7 +16542,7 @@
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -16528,7 +16556,7 @@
         <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -16542,7 +16570,7 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -16556,7 +16584,7 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>1785</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -16570,2219 +16598,2219 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="B28" t="s">
-        <v>2081</v>
+        <v>2074</v>
       </c>
       <c r="C28" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="D28" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="B29" t="s">
-        <v>2082</v>
+        <v>2075</v>
       </c>
       <c r="C29" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="D29" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="B30" t="s">
-        <v>2083</v>
+        <v>2076</v>
       </c>
       <c r="C30" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="D30" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="B31" t="s">
-        <v>2084</v>
+        <v>2077</v>
       </c>
       <c r="C31" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="D31" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="B32" t="s">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="C32" t="s">
-        <v>1928</v>
+        <v>1921</v>
       </c>
       <c r="D32" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1929</v>
+        <v>1922</v>
       </c>
       <c r="B33" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="C33" t="s">
-        <v>1929</v>
+        <v>1922</v>
       </c>
       <c r="D33" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2086</v>
+        <v>2079</v>
       </c>
       <c r="B34" t="s">
-        <v>2118</v>
+        <v>2111</v>
       </c>
       <c r="C34" t="s">
-        <v>1930</v>
+        <v>1923</v>
       </c>
       <c r="D34" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B35" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
       <c r="C35" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="D35" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="B36" t="s">
-        <v>2120</v>
+        <v>2113</v>
       </c>
       <c r="C36" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="D36" t="s">
-        <v>1767</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="B37" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="C37" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="D37" t="s">
-        <v>1768</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="B38" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="C38" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="D38" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="B39" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
       <c r="C39" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="D39" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="B40" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="C40" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="D40" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2087</v>
+        <v>2080</v>
       </c>
       <c r="B41" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
       <c r="C41" t="s">
-        <v>1937</v>
+        <v>1930</v>
       </c>
       <c r="D41" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="B42" t="s">
-        <v>2126</v>
+        <v>2119</v>
       </c>
       <c r="C42" t="s">
-        <v>1938</v>
+        <v>1931</v>
       </c>
       <c r="D42" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="B43" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
       <c r="C43" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="D43" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1940</v>
+        <v>1933</v>
       </c>
       <c r="B44" t="s">
-        <v>2128</v>
+        <v>2121</v>
       </c>
       <c r="C44" t="s">
-        <v>1940</v>
+        <v>1933</v>
       </c>
       <c r="D44" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
       <c r="B45" t="s">
-        <v>2129</v>
+        <v>2122</v>
       </c>
       <c r="C45" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
       <c r="D45" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2089</v>
+        <v>2082</v>
       </c>
       <c r="B46" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="C46" t="s">
-        <v>1942</v>
+        <v>1935</v>
       </c>
       <c r="D46" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="B47" t="s">
-        <v>2131</v>
+        <v>2124</v>
       </c>
       <c r="C47" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="D47" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="B48" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="C48" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="D48" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="B49" t="s">
-        <v>2133</v>
+        <v>2126</v>
       </c>
       <c r="C49" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="D49" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="B50" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
       <c r="C50" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="D50" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
       <c r="B51" t="s">
-        <v>2135</v>
+        <v>2128</v>
       </c>
       <c r="C51" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
       <c r="D51" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="B52" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="C52" t="s">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="D52" t="s">
-        <v>1789</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="B53" t="s">
-        <v>2137</v>
+        <v>2130</v>
       </c>
       <c r="C53" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="D53" t="s">
-        <v>1790</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1950</v>
+        <v>1943</v>
       </c>
       <c r="B54" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
       <c r="C54" t="s">
-        <v>1950</v>
+        <v>1943</v>
       </c>
       <c r="D54" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
       <c r="B55" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
       <c r="C55" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
       <c r="D55" t="s">
-        <v>1792</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2090</v>
+        <v>2083</v>
       </c>
       <c r="B56" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
       <c r="C56" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
       <c r="D56" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="B57" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
       <c r="C57" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="D57" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="B58" t="s">
-        <v>2142</v>
+        <v>2135</v>
       </c>
       <c r="C58" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="D58" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="B59" t="s">
-        <v>2143</v>
+        <v>2136</v>
       </c>
       <c r="C59" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="D59" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="B60" t="s">
-        <v>2144</v>
+        <v>2137</v>
       </c>
       <c r="C60" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="D60" t="s">
-        <v>1797</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="B61" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
       <c r="C61" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="D61" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>2091</v>
+        <v>2084</v>
       </c>
       <c r="B62" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="C62" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="D62" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>2092</v>
+        <v>2085</v>
       </c>
       <c r="B63" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="C63" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="D63" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1960</v>
+        <v>1953</v>
       </c>
       <c r="B64" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
       <c r="C64" t="s">
-        <v>1960</v>
+        <v>1953</v>
       </c>
       <c r="D64" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
       <c r="B65" t="s">
-        <v>2149</v>
+        <v>2142</v>
       </c>
       <c r="C65" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
       <c r="D65" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1962</v>
+        <v>1955</v>
       </c>
       <c r="B66" t="s">
-        <v>2150</v>
+        <v>2143</v>
       </c>
       <c r="C66" t="s">
-        <v>1962</v>
+        <v>1955</v>
       </c>
       <c r="D66" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="B67" t="s">
-        <v>2151</v>
+        <v>2144</v>
       </c>
       <c r="C67" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="D67" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="B68" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
       <c r="C68" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="D68" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
       <c r="B69" t="s">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="C69" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
       <c r="D69" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="B70" t="s">
-        <v>2154</v>
+        <v>2147</v>
       </c>
       <c r="C70" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="D70" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>2093</v>
+        <v>2086</v>
       </c>
       <c r="B71" t="s">
-        <v>2155</v>
+        <v>2148</v>
       </c>
       <c r="C71" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="D71" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="B72" t="s">
-        <v>2156</v>
+        <v>2149</v>
       </c>
       <c r="C72" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="D72" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>2094</v>
+        <v>2087</v>
       </c>
       <c r="B73" t="s">
-        <v>2157</v>
+        <v>2150</v>
       </c>
       <c r="C73" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="D73" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="B74" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="C74" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="D74" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="B75" t="s">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="C75" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="D75" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="B76" t="s">
-        <v>2160</v>
+        <v>2153</v>
       </c>
       <c r="C76" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="D76" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1973</v>
+        <v>1966</v>
       </c>
       <c r="B77" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
       <c r="C77" t="s">
-        <v>1973</v>
+        <v>1966</v>
       </c>
       <c r="D77" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="B78" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
       <c r="C78" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="D78" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="B79" t="s">
-        <v>2163</v>
+        <v>2156</v>
       </c>
       <c r="C79" t="s">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="D79" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1976</v>
+        <v>1969</v>
       </c>
       <c r="B80" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
       <c r="C80" t="s">
-        <v>1976</v>
+        <v>1969</v>
       </c>
       <c r="D80" t="s">
-        <v>1817</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1977</v>
+        <v>1970</v>
       </c>
       <c r="B81" t="s">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="C81" t="s">
-        <v>1977</v>
+        <v>1970</v>
       </c>
       <c r="D81" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="B82" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="C82" t="s">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="D82" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="B83" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
       <c r="C83" t="s">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="D83" t="s">
-        <v>1820</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="B84" t="s">
-        <v>2168</v>
+        <v>2161</v>
       </c>
       <c r="C84" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="D84" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
       <c r="B85" t="s">
-        <v>2169</v>
+        <v>2162</v>
       </c>
       <c r="C85" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
       <c r="D85" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
       <c r="B86" t="s">
-        <v>2170</v>
+        <v>2163</v>
       </c>
       <c r="C86" t="s">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="D86" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="B87" t="s">
-        <v>2171</v>
+        <v>2164</v>
       </c>
       <c r="C87" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="D87" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>2096</v>
+        <v>2089</v>
       </c>
       <c r="B88" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
       <c r="C88" t="s">
-        <v>1984</v>
+        <v>1977</v>
       </c>
       <c r="D88" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
       <c r="B89" t="s">
-        <v>2173</v>
+        <v>2166</v>
       </c>
       <c r="C89" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
       <c r="D89" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1986</v>
+        <v>1979</v>
       </c>
       <c r="B90" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="C90" t="s">
-        <v>1986</v>
+        <v>1979</v>
       </c>
       <c r="D90" t="s">
-        <v>1827</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>2271</v>
+        <v>2264</v>
       </c>
       <c r="B91" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
       <c r="C91" t="s">
-        <v>1987</v>
+        <v>1980</v>
       </c>
       <c r="D91" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>2097</v>
+        <v>2090</v>
       </c>
       <c r="B92" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="C92" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="D92" t="s">
-        <v>1829</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>2098</v>
+        <v>2091</v>
       </c>
       <c r="B93" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="C93" t="s">
-        <v>1989</v>
+        <v>1982</v>
       </c>
       <c r="D93" t="s">
-        <v>1830</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="B94" t="s">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="C94" t="s">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="D94" t="s">
-        <v>1831</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
       <c r="B95" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="C95" t="s">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="D95" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="B96" t="s">
-        <v>2180</v>
+        <v>2173</v>
       </c>
       <c r="C96" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="D96" t="s">
-        <v>1833</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="B97" t="s">
-        <v>2181</v>
+        <v>2174</v>
       </c>
       <c r="C97" t="s">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="D97" t="s">
-        <v>1834</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="B98" t="s">
-        <v>2182</v>
+        <v>2175</v>
       </c>
       <c r="C98" t="s">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="D98" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="B99" t="s">
-        <v>2183</v>
+        <v>2176</v>
       </c>
       <c r="C99" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="D99" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="B100" t="s">
-        <v>2184</v>
+        <v>2177</v>
       </c>
       <c r="C100" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="D100" t="s">
-        <v>1837</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="B101" t="s">
-        <v>2185</v>
+        <v>2178</v>
       </c>
       <c r="C101" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="D101" t="s">
-        <v>1838</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="B102" t="s">
-        <v>2186</v>
+        <v>2179</v>
       </c>
       <c r="C102" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="D102" t="s">
-        <v>1839</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="B103" t="s">
-        <v>2187</v>
+        <v>2180</v>
       </c>
       <c r="C103" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="D103" t="s">
-        <v>1840</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="B104" t="s">
-        <v>2188</v>
+        <v>2181</v>
       </c>
       <c r="C104" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="D104" t="s">
-        <v>1841</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="B105" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
       <c r="C105" t="s">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="D105" t="s">
-        <v>1842</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="B106" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
       <c r="C106" t="s">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="D106" t="s">
-        <v>1843</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="B107" t="s">
-        <v>2191</v>
+        <v>2184</v>
       </c>
       <c r="C107" t="s">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="D107" t="s">
-        <v>1844</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="B108" t="s">
-        <v>2192</v>
+        <v>2185</v>
       </c>
       <c r="C108" t="s">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="D108" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="B109" t="s">
-        <v>2193</v>
+        <v>2186</v>
       </c>
       <c r="C109" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="D109" t="s">
-        <v>1846</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="B110" t="s">
-        <v>2194</v>
+        <v>2187</v>
       </c>
       <c r="C110" t="s">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="D110" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="B111" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
       <c r="C111" t="s">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="D111" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="B112" t="s">
-        <v>2196</v>
+        <v>2189</v>
       </c>
       <c r="C112" t="s">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D112" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="B113" t="s">
-        <v>2197</v>
+        <v>2190</v>
       </c>
       <c r="C113" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D113" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="B114" t="s">
-        <v>2198</v>
+        <v>2191</v>
       </c>
       <c r="C114" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="D114" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="B115" t="s">
-        <v>2199</v>
+        <v>2192</v>
       </c>
       <c r="C115" t="s">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="D115" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="B116" t="s">
-        <v>2200</v>
+        <v>2193</v>
       </c>
       <c r="C116" t="s">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="D116" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B117" t="s">
-        <v>2201</v>
+        <v>2194</v>
       </c>
       <c r="C117" t="s">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D117" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="B118" t="s">
-        <v>2202</v>
+        <v>2195</v>
       </c>
       <c r="C118" t="s">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="D118" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="B119" t="s">
-        <v>2203</v>
+        <v>2196</v>
       </c>
       <c r="C119" t="s">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="D119" t="s">
-        <v>1856</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="B120" t="s">
-        <v>2204</v>
+        <v>2197</v>
       </c>
       <c r="C120" t="s">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="D120" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="B121" t="s">
-        <v>2205</v>
+        <v>2198</v>
       </c>
       <c r="C121" t="s">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="D121" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="B122" t="s">
-        <v>2206</v>
+        <v>2199</v>
       </c>
       <c r="C122" t="s">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="D122" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="B123" t="s">
-        <v>2207</v>
+        <v>2200</v>
       </c>
       <c r="C123" t="s">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D123" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>2100</v>
+        <v>2093</v>
       </c>
       <c r="B124" t="s">
-        <v>2208</v>
+        <v>2201</v>
       </c>
       <c r="C124" t="s">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D124" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>2101</v>
+        <v>2094</v>
       </c>
       <c r="B125" t="s">
-        <v>2209</v>
+        <v>2202</v>
       </c>
       <c r="C125" t="s">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D125" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="B126" t="s">
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="C126" t="s">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="D126" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="B127" t="s">
-        <v>2211</v>
+        <v>2204</v>
       </c>
       <c r="C127" t="s">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="D127" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="B128" t="s">
-        <v>2212</v>
+        <v>2205</v>
       </c>
       <c r="C128" t="s">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="D128" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="B129" t="s">
-        <v>2213</v>
+        <v>2206</v>
       </c>
       <c r="C129" t="s">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D129" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2026</v>
+        <v>2019</v>
       </c>
       <c r="B130" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
       <c r="C130" t="s">
-        <v>2026</v>
+        <v>2019</v>
       </c>
       <c r="D130" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="B131" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="C131" t="s">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="D131" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="B132" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
       <c r="C132" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="D132" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>2029</v>
+        <v>2022</v>
       </c>
       <c r="B133" t="s">
-        <v>2217</v>
+        <v>2210</v>
       </c>
       <c r="C133" t="s">
-        <v>2029</v>
+        <v>2022</v>
       </c>
       <c r="D133" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>2030</v>
+        <v>2023</v>
       </c>
       <c r="B134" t="s">
-        <v>2218</v>
+        <v>2211</v>
       </c>
       <c r="C134" t="s">
-        <v>2030</v>
+        <v>2023</v>
       </c>
       <c r="D134" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>2031</v>
+        <v>2024</v>
       </c>
       <c r="B135" t="s">
-        <v>2219</v>
+        <v>2212</v>
       </c>
       <c r="C135" t="s">
-        <v>2031</v>
+        <v>2024</v>
       </c>
       <c r="D135" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>2032</v>
+        <v>2025</v>
       </c>
       <c r="B136" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
       <c r="C136" t="s">
-        <v>2032</v>
+        <v>2025</v>
       </c>
       <c r="D136" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2033</v>
+        <v>2026</v>
       </c>
       <c r="B137" t="s">
-        <v>2221</v>
+        <v>2214</v>
       </c>
       <c r="C137" t="s">
-        <v>2033</v>
+        <v>2026</v>
       </c>
       <c r="D137" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2034</v>
+        <v>2027</v>
       </c>
       <c r="B138" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
       <c r="C138" t="s">
-        <v>2034</v>
+        <v>2027</v>
       </c>
       <c r="D138" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2035</v>
+        <v>2028</v>
       </c>
       <c r="B139" t="s">
-        <v>2223</v>
+        <v>2216</v>
       </c>
       <c r="C139" t="s">
-        <v>2035</v>
+        <v>2028</v>
       </c>
       <c r="D139" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="B140" t="s">
-        <v>2224</v>
+        <v>2217</v>
       </c>
       <c r="C140" t="s">
-        <v>2036</v>
+        <v>2029</v>
       </c>
       <c r="D140" t="s">
-        <v>1877</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="B141" t="s">
-        <v>2225</v>
+        <v>2218</v>
       </c>
       <c r="C141" t="s">
-        <v>2037</v>
+        <v>2030</v>
       </c>
       <c r="D141" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2038</v>
+        <v>2031</v>
       </c>
       <c r="B142" t="s">
-        <v>2226</v>
+        <v>2219</v>
       </c>
       <c r="C142" t="s">
-        <v>2038</v>
+        <v>2031</v>
       </c>
       <c r="D142" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2039</v>
+        <v>2032</v>
       </c>
       <c r="B143" t="s">
-        <v>2227</v>
+        <v>2220</v>
       </c>
       <c r="C143" t="s">
-        <v>2039</v>
+        <v>2032</v>
       </c>
       <c r="D143" t="s">
-        <v>1880</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2040</v>
+        <v>2033</v>
       </c>
       <c r="B144" t="s">
-        <v>2228</v>
+        <v>2221</v>
       </c>
       <c r="C144" t="s">
-        <v>2040</v>
+        <v>2033</v>
       </c>
       <c r="D144" t="s">
-        <v>1881</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2041</v>
+        <v>2034</v>
       </c>
       <c r="B145" t="s">
-        <v>2229</v>
+        <v>2222</v>
       </c>
       <c r="C145" t="s">
-        <v>2041</v>
+        <v>2034</v>
       </c>
       <c r="D145" t="s">
-        <v>1882</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2042</v>
+        <v>2035</v>
       </c>
       <c r="B146" t="s">
-        <v>2230</v>
+        <v>2223</v>
       </c>
       <c r="C146" t="s">
-        <v>2042</v>
+        <v>2035</v>
       </c>
       <c r="D146" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2043</v>
+        <v>2036</v>
       </c>
       <c r="B147" t="s">
-        <v>2231</v>
+        <v>2224</v>
       </c>
       <c r="C147" t="s">
-        <v>2043</v>
+        <v>2036</v>
       </c>
       <c r="D147" t="s">
-        <v>1884</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2044</v>
+        <v>2037</v>
       </c>
       <c r="B148" t="s">
-        <v>2232</v>
+        <v>2225</v>
       </c>
       <c r="C148" t="s">
-        <v>2044</v>
+        <v>2037</v>
       </c>
       <c r="D148" t="s">
-        <v>1885</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2045</v>
+        <v>2038</v>
       </c>
       <c r="B149" t="s">
-        <v>2233</v>
+        <v>2226</v>
       </c>
       <c r="C149" t="s">
-        <v>2045</v>
+        <v>2038</v>
       </c>
       <c r="D149" t="s">
-        <v>1886</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="B150" t="s">
-        <v>2234</v>
+        <v>2227</v>
       </c>
       <c r="C150" t="s">
-        <v>2046</v>
+        <v>2039</v>
       </c>
       <c r="D150" t="s">
-        <v>1887</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="B151" t="s">
-        <v>2235</v>
+        <v>2228</v>
       </c>
       <c r="C151" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="D151" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2048</v>
+        <v>2041</v>
       </c>
       <c r="B152" t="s">
-        <v>2236</v>
+        <v>2229</v>
       </c>
       <c r="C152" t="s">
-        <v>2048</v>
+        <v>2041</v>
       </c>
       <c r="D152" t="s">
-        <v>1889</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2049</v>
+        <v>2042</v>
       </c>
       <c r="B153" t="s">
-        <v>2237</v>
+        <v>2230</v>
       </c>
       <c r="C153" t="s">
-        <v>2049</v>
+        <v>2042</v>
       </c>
       <c r="D153" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="B154" t="s">
-        <v>2238</v>
+        <v>2231</v>
       </c>
       <c r="C154" t="s">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="D154" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2051</v>
+        <v>2044</v>
       </c>
       <c r="B155" t="s">
-        <v>2239</v>
+        <v>2232</v>
       </c>
       <c r="C155" t="s">
-        <v>2051</v>
+        <v>2044</v>
       </c>
       <c r="D155" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2052</v>
+        <v>2045</v>
       </c>
       <c r="B156" t="s">
-        <v>2240</v>
+        <v>2233</v>
       </c>
       <c r="C156" t="s">
-        <v>2052</v>
+        <v>2045</v>
       </c>
       <c r="D156" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="B157" t="s">
-        <v>2241</v>
+        <v>2234</v>
       </c>
       <c r="C157" t="s">
-        <v>2053</v>
+        <v>2046</v>
       </c>
       <c r="D157" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B158" t="s">
-        <v>2242</v>
+        <v>2235</v>
       </c>
       <c r="C158" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="D158" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="B159" t="s">
-        <v>2243</v>
+        <v>2236</v>
       </c>
       <c r="C159" t="s">
-        <v>2055</v>
+        <v>2048</v>
       </c>
       <c r="D159" t="s">
-        <v>1896</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2056</v>
+        <v>2049</v>
       </c>
       <c r="B160" t="s">
-        <v>2244</v>
+        <v>2237</v>
       </c>
       <c r="C160" t="s">
-        <v>2056</v>
+        <v>2049</v>
       </c>
       <c r="D160" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2057</v>
+        <v>2050</v>
       </c>
       <c r="B161" t="s">
-        <v>2245</v>
+        <v>2238</v>
       </c>
       <c r="C161" t="s">
-        <v>2057</v>
+        <v>2050</v>
       </c>
       <c r="D161" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="B162" t="s">
-        <v>2246</v>
+        <v>2239</v>
       </c>
       <c r="C162" t="s">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="D162" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2059</v>
+        <v>2052</v>
       </c>
       <c r="B163" t="s">
-        <v>2247</v>
+        <v>2240</v>
       </c>
       <c r="C163" t="s">
-        <v>2059</v>
+        <v>2052</v>
       </c>
       <c r="D163" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
       <c r="B164" t="s">
-        <v>2248</v>
+        <v>2241</v>
       </c>
       <c r="C164" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="D164" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2061</v>
+        <v>2054</v>
       </c>
       <c r="B165" t="s">
-        <v>2249</v>
+        <v>2242</v>
       </c>
       <c r="C165" t="s">
-        <v>2061</v>
+        <v>2054</v>
       </c>
       <c r="D165" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2062</v>
+        <v>2055</v>
       </c>
       <c r="B166" t="s">
-        <v>2250</v>
+        <v>2243</v>
       </c>
       <c r="C166" t="s">
-        <v>2062</v>
+        <v>2055</v>
       </c>
       <c r="D166" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2109</v>
+        <v>2102</v>
       </c>
       <c r="B167" t="s">
-        <v>2251</v>
+        <v>2244</v>
       </c>
       <c r="C167" t="s">
-        <v>2063</v>
+        <v>2056</v>
       </c>
       <c r="D167" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2064</v>
+        <v>2057</v>
       </c>
       <c r="B168" t="s">
-        <v>2252</v>
+        <v>2245</v>
       </c>
       <c r="C168" t="s">
-        <v>2064</v>
+        <v>2057</v>
       </c>
       <c r="D168" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="B169" t="s">
-        <v>2253</v>
+        <v>2246</v>
       </c>
       <c r="C169" t="s">
-        <v>2065</v>
+        <v>2058</v>
       </c>
       <c r="D169" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
       <c r="B170" t="s">
-        <v>2254</v>
+        <v>2247</v>
       </c>
       <c r="C170" t="s">
-        <v>2066</v>
+        <v>2059</v>
       </c>
       <c r="D170" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="B171" t="s">
-        <v>2255</v>
+        <v>2248</v>
       </c>
       <c r="C171" t="s">
-        <v>2067</v>
+        <v>2060</v>
       </c>
       <c r="D171" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2068</v>
+        <v>2061</v>
       </c>
       <c r="B172" t="s">
-        <v>2256</v>
+        <v>2249</v>
       </c>
       <c r="C172" t="s">
-        <v>2068</v>
+        <v>2061</v>
       </c>
       <c r="D172" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2069</v>
+        <v>2062</v>
       </c>
       <c r="B173" t="s">
-        <v>2257</v>
+        <v>2250</v>
       </c>
       <c r="C173" t="s">
-        <v>2069</v>
+        <v>2062</v>
       </c>
       <c r="D173" t="s">
-        <v>1910</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2070</v>
+        <v>2063</v>
       </c>
       <c r="B174" t="s">
-        <v>2258</v>
+        <v>2251</v>
       </c>
       <c r="C174" t="s">
-        <v>2070</v>
+        <v>2063</v>
       </c>
       <c r="D174" t="s">
-        <v>1911</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2071</v>
+        <v>2064</v>
       </c>
       <c r="B175" t="s">
-        <v>2259</v>
+        <v>2252</v>
       </c>
       <c r="C175" t="s">
-        <v>2071</v>
+        <v>2064</v>
       </c>
       <c r="D175" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2072</v>
+        <v>2065</v>
       </c>
       <c r="B176" t="s">
-        <v>2260</v>
+        <v>2253</v>
       </c>
       <c r="C176" t="s">
-        <v>2072</v>
+        <v>2065</v>
       </c>
       <c r="D176" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2073</v>
+        <v>2066</v>
       </c>
       <c r="B177" t="s">
-        <v>2261</v>
+        <v>2254</v>
       </c>
       <c r="C177" t="s">
-        <v>2073</v>
+        <v>2066</v>
       </c>
       <c r="D177" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2113</v>
+        <v>2106</v>
       </c>
       <c r="B178" t="s">
-        <v>2262</v>
+        <v>2255</v>
       </c>
       <c r="C178" t="s">
-        <v>2074</v>
+        <v>2067</v>
       </c>
       <c r="D178" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="B179" t="s">
-        <v>2263</v>
+        <v>2256</v>
       </c>
       <c r="C179" t="s">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="D179" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="B180" t="s">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="C180" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="D180" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="B181" t="s">
-        <v>2265</v>
+        <v>2258</v>
       </c>
       <c r="C181" t="s">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="D181" t="s">
-        <v>1918</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="B182" t="s">
-        <v>2266</v>
+        <v>2259</v>
       </c>
       <c r="C182" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="D182" t="s">
-        <v>1919</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2079</v>
+        <v>2072</v>
       </c>
       <c r="B183" t="s">
-        <v>2267</v>
+        <v>2260</v>
       </c>
       <c r="C183" t="s">
-        <v>2079</v>
+        <v>2072</v>
       </c>
       <c r="D183" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2115</v>
+        <v>2108</v>
       </c>
       <c r="B184" t="s">
-        <v>2269</v>
+        <v>2262</v>
       </c>
       <c r="C184" t="s">
-        <v>2270</v>
+        <v>2263</v>
       </c>
       <c r="D184" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="B185" t="s">
-        <v>2268</v>
+        <v>2261</v>
       </c>
       <c r="C185" t="s">
-        <v>2080</v>
+        <v>2073</v>
       </c>
       <c r="D185" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
     </row>
   </sheetData>
@@ -18823,100 +18851,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2328</v>
+        <v>2321</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2322</v>
+        <v>2315</v>
       </c>
       <c r="C2" t="s">
-        <v>2328</v>
+        <v>2321</v>
       </c>
       <c r="D2" t="s">
-        <v>2316</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2329</v>
+        <v>2322</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>2323</v>
+        <v>2316</v>
       </c>
       <c r="C3" t="s">
-        <v>2329</v>
+        <v>2322</v>
       </c>
       <c r="D3" t="s">
-        <v>2317</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2330</v>
+        <v>2323</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>2324</v>
+        <v>2317</v>
       </c>
       <c r="C4" t="s">
-        <v>2330</v>
+        <v>2323</v>
       </c>
       <c r="D4" t="s">
-        <v>2318</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2331</v>
+        <v>2324</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>2325</v>
+        <v>2318</v>
       </c>
       <c r="C5" t="s">
-        <v>2331</v>
+        <v>2324</v>
       </c>
       <c r="D5" t="s">
-        <v>2319</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2332</v>
+        <v>2325</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2326</v>
+        <v>2319</v>
       </c>
       <c r="C6" t="s">
-        <v>2332</v>
+        <v>2325</v>
       </c>
       <c r="D6" t="s">
-        <v>2320</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2333</v>
+        <v>2326</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2327</v>
+        <v>2320</v>
       </c>
       <c r="C7" t="s">
-        <v>2333</v>
+        <v>2326</v>
       </c>
       <c r="D7" t="s">
-        <v>2321</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2334</v>
+        <v>2327</v>
       </c>
       <c r="C8" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="D8" t="s">
-        <v>2335</v>
+        <v>2328</v>
       </c>
     </row>
   </sheetData>

--- a/MLSD-BOM/resources/DynamicDomains.xlsx
+++ b/MLSD-BOM/resources/DynamicDomains.xlsx
@@ -29,12 +29,11 @@
     <sheet name="DisabilityCategory" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="2554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="2557">
   <si>
     <t>Values</t>
   </si>
@@ -7696,6 +7695,15 @@
   </si>
   <si>
     <t>الطلب مرفوض بسبب عدم وجود اجهزه طبية في الطلب</t>
+  </si>
+  <si>
+    <t>MSGOW3</t>
+  </si>
+  <si>
+    <t>MSG-OW3</t>
+  </si>
+  <si>
+    <t>Invalid Handicapped Applicant Assets Eligibility</t>
   </si>
 </sst>
 </file>
@@ -12387,10 +12395,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:XFD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15892,6 +15900,24 @@
       </c>
       <c r="E194" s="11" t="s">
         <v>2553</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D195" s="6" t="str">
+        <f>CONCATENATE("return new RejectionMessageDetails(""",C195,"""",",""",B195,"""",",""",E195,""")",";")</f>
+        <v>return new RejectionMessageDetails("MSG-OW3","Invalid Handicapped Applicant Assets Eligibility","اسقاط المستفيد بسبب عدم تحقيق شروط امتلاك العقارات");</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
